--- a/data/获取数据/政策导向指标/非国企20年数据/301439.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/301439.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="181">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>泓淋电力</t>
   </si>
   <si>
-    <t>301439</t>
-  </si>
-  <si>
     <t>2023-03-17</t>
   </si>
   <si>
@@ -521,6 +545,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-03-16</t>
+  </si>
+  <si>
+    <t>迟少林</t>
+  </si>
+  <si>
+    <t>威海市泓淋科技集团有限公司</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -878,13 +914,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,16 +960,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>301439</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>27.85</v>
@@ -966,4921 +1029,4909 @@
         <v>58.62</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>301439</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>178</v>
+      </c>
+      <c r="R3">
+        <v>20585</v>
+      </c>
+      <c r="S3">
+        <v>52.905</v>
+      </c>
+      <c r="T3" t="s">
+        <v>179</v>
+      </c>
+      <c r="U3" t="s">
+        <v>180</v>
+      </c>
+      <c r="V3">
+        <v>46.35103474221368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>301439</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>21.9</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>20.25</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>22.1</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>20.16</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>368505</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>776793137</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>8.029999999999999</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>-16.15</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-3.9</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>39.94</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>301439</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>19.92</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>19.57</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>20.22</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>19.56</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>214629</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>425525588</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>3.26</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>-3.36</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>-0.68</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>23.26</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>301439</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>19.63</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>19.71</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>19.99</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>19.54</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>164721</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>327690598</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>2.3</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>0.72</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>0.14</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>17.85</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>301439</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>19.55</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>19.03</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>19.55</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>18.96</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>170840</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>329554629</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>2.99</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-3.45</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-0.68</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>18.52</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>301439</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>18.93</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>19.25</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>19.7</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>18.92</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>152657</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>297463056</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>4.1</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>1.16</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.22</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>16.55</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>19.05</v>
-      </c>
-      <c r="E8">
-        <v>19.03</v>
-      </c>
-      <c r="F8">
-        <v>19.29</v>
-      </c>
-      <c r="G8">
-        <v>18.96</v>
-      </c>
-      <c r="H8">
-        <v>114058</v>
-      </c>
-      <c r="I8">
-        <v>218942126</v>
-      </c>
-      <c r="J8">
-        <v>1.71</v>
-      </c>
-      <c r="K8">
-        <v>-1.14</v>
-      </c>
-      <c r="L8">
-        <v>-0.22</v>
-      </c>
-      <c r="M8">
-        <v>12.36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>301439</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>19.05</v>
       </c>
       <c r="E9">
+        <v>19.03</v>
+      </c>
+      <c r="F9">
+        <v>19.29</v>
+      </c>
+      <c r="G9">
+        <v>18.96</v>
+      </c>
+      <c r="H9">
+        <v>114058</v>
+      </c>
+      <c r="I9">
+        <v>218942126</v>
+      </c>
+      <c r="J9">
+        <v>1.71</v>
+      </c>
+      <c r="K9">
+        <v>-1.14</v>
+      </c>
+      <c r="L9">
+        <v>-0.22</v>
+      </c>
+      <c r="M9">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>301439</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>19.05</v>
+      </c>
+      <c r="E10">
         <v>19.12</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>19.34</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>18.94</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>96044</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>185026607</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>2.1</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.47</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>0.09</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>10.41</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>301439</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>18.49</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>19.23</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>18.44</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>133594</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>252211586</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>4.13</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-3.29</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-0.63</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>14.48</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>301439</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>18.47</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>18.04</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>18.47</v>
-      </c>
-      <c r="G11">
-        <v>17.96</v>
-      </c>
-      <c r="H11">
-        <v>94766</v>
-      </c>
-      <c r="I11">
-        <v>172819831</v>
-      </c>
-      <c r="J11">
-        <v>2.76</v>
-      </c>
-      <c r="K11">
-        <v>-2.43</v>
-      </c>
-      <c r="L11">
-        <v>-0.45</v>
-      </c>
-      <c r="M11">
-        <v>10.27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>18.02</v>
-      </c>
-      <c r="E12">
-        <v>18.08</v>
-      </c>
-      <c r="F12">
-        <v>18.12</v>
       </c>
       <c r="G12">
         <v>17.96</v>
       </c>
       <c r="H12">
+        <v>94766</v>
+      </c>
+      <c r="I12">
+        <v>172819831</v>
+      </c>
+      <c r="J12">
+        <v>2.76</v>
+      </c>
+      <c r="K12">
+        <v>-2.43</v>
+      </c>
+      <c r="L12">
+        <v>-0.45</v>
+      </c>
+      <c r="M12">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>301439</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>18.02</v>
+      </c>
+      <c r="E13">
+        <v>18.08</v>
+      </c>
+      <c r="F13">
+        <v>18.12</v>
+      </c>
+      <c r="G13">
+        <v>17.96</v>
+      </c>
+      <c r="H13">
         <v>60696</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>110486637</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>0.89</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.22</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>0.04</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>6.58</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>301439</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
         <v>18.15</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>18.11</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>18.19</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>18.01</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>65368</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>119261001</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.17</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>0.03</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>7.08</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>301439</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>18.12</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>17.76</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>18.14</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>17.62</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>102834</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>184936391</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>2.87</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>-1.93</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>-0.35</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>11.15</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>301439</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>17.76</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>18.25</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>18.25</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>17.6</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>77639</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>140400218</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>3.66</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>2.76</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>0.49</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>8.41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>18.29</v>
-      </c>
-      <c r="E16">
-        <v>18.39</v>
-      </c>
-      <c r="F16">
-        <v>18.75</v>
-      </c>
-      <c r="G16">
-        <v>18.23</v>
-      </c>
-      <c r="H16">
-        <v>102031</v>
-      </c>
-      <c r="I16">
-        <v>190142017</v>
-      </c>
-      <c r="J16">
-        <v>2.85</v>
-      </c>
-      <c r="K16">
-        <v>0.77</v>
-      </c>
-      <c r="L16">
-        <v>0.14</v>
-      </c>
-      <c r="M16">
-        <v>11.06</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>301439</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>18.28</v>
+        <v>18.29</v>
       </c>
       <c r="E17">
-        <v>17.95</v>
+        <v>18.39</v>
       </c>
       <c r="F17">
-        <v>18.35</v>
+        <v>18.75</v>
       </c>
       <c r="G17">
-        <v>17.92</v>
+        <v>18.23</v>
       </c>
       <c r="H17">
-        <v>73554</v>
+        <v>102031</v>
       </c>
       <c r="I17">
-        <v>133852980</v>
+        <v>190142017</v>
       </c>
       <c r="J17">
-        <v>2.34</v>
+        <v>2.85</v>
       </c>
       <c r="K17">
-        <v>-2.39</v>
+        <v>0.77</v>
       </c>
       <c r="L17">
-        <v>-0.44</v>
+        <v>0.14</v>
       </c>
       <c r="M17">
-        <v>7.97</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>301439</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
+        <v>18.28</v>
+      </c>
+      <c r="E18">
         <v>17.95</v>
       </c>
-      <c r="E18">
-        <v>17.88</v>
-      </c>
       <c r="F18">
-        <v>18.04</v>
+        <v>18.35</v>
       </c>
       <c r="G18">
-        <v>17.76</v>
+        <v>17.92</v>
       </c>
       <c r="H18">
-        <v>47641</v>
+        <v>73554</v>
       </c>
       <c r="I18">
-        <v>85969712</v>
+        <v>133852980</v>
       </c>
       <c r="J18">
-        <v>1.56</v>
+        <v>2.34</v>
       </c>
       <c r="K18">
-        <v>-0.39</v>
+        <v>-2.39</v>
       </c>
       <c r="L18">
-        <v>-0.07000000000000001</v>
+        <v>-0.44</v>
       </c>
       <c r="M18">
-        <v>5.16</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>301439</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
+        <v>17.95</v>
+      </c>
+      <c r="E19">
         <v>17.88</v>
       </c>
-      <c r="E19">
-        <v>17.9</v>
-      </c>
       <c r="F19">
-        <v>17.94</v>
+        <v>18.04</v>
       </c>
       <c r="G19">
-        <v>17.71</v>
+        <v>17.76</v>
       </c>
       <c r="H19">
-        <v>55493</v>
+        <v>47641</v>
       </c>
       <c r="I19">
-        <v>99719208</v>
+        <v>85969712</v>
       </c>
       <c r="J19">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="K19">
-        <v>0.11</v>
+        <v>-0.39</v>
       </c>
       <c r="L19">
-        <v>0.02</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M19">
-        <v>6.01</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>301439</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>17.89</v>
+        <v>17.88</v>
       </c>
       <c r="E20">
-        <v>17.76</v>
+        <v>17.9</v>
       </c>
       <c r="F20">
-        <v>18.03</v>
+        <v>17.94</v>
       </c>
       <c r="G20">
-        <v>17.75</v>
+        <v>17.71</v>
       </c>
       <c r="H20">
-        <v>47645</v>
+        <v>55493</v>
       </c>
       <c r="I20">
-        <v>85831810</v>
+        <v>99719208</v>
       </c>
       <c r="J20">
-        <v>1.56</v>
+        <v>1.29</v>
       </c>
       <c r="K20">
-        <v>-0.78</v>
+        <v>0.11</v>
       </c>
       <c r="L20">
-        <v>-0.14</v>
+        <v>0.02</v>
       </c>
       <c r="M20">
-        <v>5.16</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>301439</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>17.84</v>
+        <v>17.89</v>
       </c>
       <c r="E21">
-        <v>17.89</v>
+        <v>17.76</v>
       </c>
       <c r="F21">
-        <v>17.89</v>
+        <v>18.03</v>
       </c>
       <c r="G21">
-        <v>17.66</v>
+        <v>17.75</v>
       </c>
       <c r="H21">
-        <v>41503</v>
+        <v>47645</v>
       </c>
       <c r="I21">
-        <v>74516714</v>
+        <v>85831810</v>
       </c>
       <c r="J21">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="K21">
-        <v>0.73</v>
+        <v>-0.78</v>
       </c>
       <c r="L21">
-        <v>0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="M21">
-        <v>4.5</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>301439</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>17.85</v>
+        <v>17.84</v>
       </c>
       <c r="E22">
-        <v>17.93</v>
+        <v>17.89</v>
       </c>
       <c r="F22">
-        <v>18.01</v>
+        <v>17.89</v>
       </c>
       <c r="G22">
-        <v>17.85</v>
+        <v>17.66</v>
       </c>
       <c r="H22">
-        <v>41685</v>
+        <v>41503</v>
       </c>
       <c r="I22">
-        <v>75285225</v>
+        <v>74516714</v>
       </c>
       <c r="J22">
-        <v>0.89</v>
+        <v>1.3</v>
       </c>
       <c r="K22">
-        <v>0.22</v>
+        <v>0.73</v>
       </c>
       <c r="L22">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="M22">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>301439</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>18.05</v>
+        <v>17.85</v>
       </c>
       <c r="E23">
-        <v>18.49</v>
+        <v>17.93</v>
       </c>
       <c r="F23">
-        <v>18.65</v>
+        <v>18.01</v>
       </c>
       <c r="G23">
-        <v>18.03</v>
+        <v>17.85</v>
       </c>
       <c r="H23">
-        <v>116417</v>
+        <v>41685</v>
       </c>
       <c r="I23">
-        <v>216230653</v>
+        <v>75285225</v>
       </c>
       <c r="J23">
-        <v>3.46</v>
+        <v>0.89</v>
       </c>
       <c r="K23">
-        <v>3.12</v>
+        <v>0.22</v>
       </c>
       <c r="L23">
-        <v>0.5600000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="M23">
-        <v>12.62</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>301439</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>18.27</v>
+        <v>18.05</v>
       </c>
       <c r="E24">
-        <v>17.99</v>
+        <v>18.49</v>
       </c>
       <c r="F24">
-        <v>18.37</v>
+        <v>18.65</v>
       </c>
       <c r="G24">
-        <v>17.98</v>
+        <v>18.03</v>
       </c>
       <c r="H24">
-        <v>74426</v>
+        <v>116417</v>
       </c>
       <c r="I24">
-        <v>135643213</v>
+        <v>216230653</v>
       </c>
       <c r="J24">
-        <v>2.11</v>
+        <v>3.46</v>
       </c>
       <c r="K24">
-        <v>-2.7</v>
+        <v>3.12</v>
       </c>
       <c r="L24">
-        <v>-0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M24">
-        <v>8.07</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>301439</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>17.95</v>
+        <v>18.27</v>
       </c>
       <c r="E25">
-        <v>17.49</v>
+        <v>17.99</v>
       </c>
       <c r="F25">
-        <v>17.96</v>
+        <v>18.37</v>
       </c>
       <c r="G25">
-        <v>17.47</v>
+        <v>17.98</v>
       </c>
       <c r="H25">
-        <v>70015</v>
+        <v>74426</v>
       </c>
       <c r="I25">
-        <v>124410220</v>
+        <v>135643213</v>
       </c>
       <c r="J25">
-        <v>2.72</v>
+        <v>2.11</v>
       </c>
       <c r="K25">
-        <v>-2.78</v>
+        <v>-2.7</v>
       </c>
       <c r="L25">
         <v>-0.5</v>
       </c>
       <c r="M25">
-        <v>7.59</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>301439</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
+        <v>17.95</v>
+      </c>
+      <c r="E26">
+        <v>17.49</v>
+      </c>
+      <c r="F26">
+        <v>17.96</v>
+      </c>
+      <c r="G26">
         <v>17.47</v>
       </c>
-      <c r="E26">
-        <v>16.96</v>
-      </c>
-      <c r="F26">
-        <v>17.61</v>
-      </c>
-      <c r="G26">
-        <v>16.93</v>
-      </c>
       <c r="H26">
-        <v>54724</v>
+        <v>70015</v>
       </c>
       <c r="I26">
-        <v>95134525</v>
+        <v>124410220</v>
       </c>
       <c r="J26">
-        <v>3.89</v>
+        <v>2.72</v>
       </c>
       <c r="K26">
-        <v>-3.03</v>
+        <v>-2.78</v>
       </c>
       <c r="L26">
-        <v>-0.53</v>
+        <v>-0.5</v>
       </c>
       <c r="M26">
-        <v>5.93</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>301439</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>17.03</v>
+        <v>17.47</v>
       </c>
       <c r="E27">
-        <v>16.99</v>
+        <v>16.96</v>
       </c>
       <c r="F27">
-        <v>17.18</v>
+        <v>17.61</v>
       </c>
       <c r="G27">
-        <v>16.74</v>
+        <v>16.93</v>
       </c>
       <c r="H27">
-        <v>33321</v>
+        <v>54724</v>
       </c>
       <c r="I27">
-        <v>57055854</v>
+        <v>95134525</v>
       </c>
       <c r="J27">
-        <v>2.59</v>
+        <v>3.89</v>
       </c>
       <c r="K27">
-        <v>0.18</v>
+        <v>-3.03</v>
       </c>
       <c r="L27">
-        <v>0.03</v>
+        <v>-0.53</v>
       </c>
       <c r="M27">
-        <v>3.61</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>301439</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>17.03</v>
       </c>
       <c r="E28">
-        <v>16.56</v>
+        <v>16.99</v>
       </c>
       <c r="F28">
-        <v>17.1</v>
+        <v>17.18</v>
       </c>
       <c r="G28">
-        <v>16.37</v>
+        <v>16.74</v>
       </c>
       <c r="H28">
-        <v>43130</v>
+        <v>33321</v>
       </c>
       <c r="I28">
-        <v>72681429</v>
+        <v>57055854</v>
       </c>
       <c r="J28">
-        <v>4.3</v>
+        <v>2.59</v>
       </c>
       <c r="K28">
-        <v>-2.53</v>
+        <v>0.18</v>
       </c>
       <c r="L28">
-        <v>-0.43</v>
+        <v>0.03</v>
       </c>
       <c r="M28">
-        <v>4.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>301439</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>16.57</v>
+        <v>17.03</v>
       </c>
       <c r="E29">
-        <v>17.2</v>
+        <v>16.56</v>
       </c>
       <c r="F29">
-        <v>17.71</v>
+        <v>17.1</v>
       </c>
       <c r="G29">
-        <v>16.52</v>
+        <v>16.37</v>
       </c>
       <c r="H29">
-        <v>63121</v>
+        <v>43130</v>
       </c>
       <c r="I29">
-        <v>109033711</v>
+        <v>72681429</v>
       </c>
       <c r="J29">
-        <v>7.19</v>
+        <v>4.3</v>
       </c>
       <c r="K29">
-        <v>3.86</v>
+        <v>-2.53</v>
       </c>
       <c r="L29">
-        <v>0.64</v>
+        <v>-0.43</v>
       </c>
       <c r="M29">
-        <v>6.84</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>301439</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>17.19</v>
+        <v>16.57</v>
       </c>
       <c r="E30">
-        <v>16.86</v>
+        <v>17.2</v>
       </c>
       <c r="F30">
-        <v>17.24</v>
+        <v>17.71</v>
       </c>
       <c r="G30">
-        <v>16.86</v>
+        <v>16.52</v>
       </c>
       <c r="H30">
-        <v>38724</v>
+        <v>63121</v>
       </c>
       <c r="I30">
-        <v>66504234</v>
+        <v>109033711</v>
       </c>
       <c r="J30">
-        <v>2.21</v>
+        <v>7.19</v>
       </c>
       <c r="K30">
-        <v>-1.98</v>
+        <v>3.86</v>
       </c>
       <c r="L30">
-        <v>-0.34</v>
+        <v>0.64</v>
       </c>
       <c r="M30">
-        <v>4.2</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>301439</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>16.78</v>
+        <v>17.19</v>
       </c>
       <c r="E31">
-        <v>17.02</v>
+        <v>16.86</v>
       </c>
       <c r="F31">
-        <v>17.11</v>
+        <v>17.24</v>
       </c>
       <c r="G31">
-        <v>16.78</v>
+        <v>16.86</v>
       </c>
       <c r="H31">
-        <v>35933</v>
+        <v>38724</v>
       </c>
       <c r="I31">
-        <v>61609421</v>
+        <v>66504234</v>
       </c>
       <c r="J31">
-        <v>1.96</v>
+        <v>2.21</v>
       </c>
       <c r="K31">
-        <v>0.95</v>
+        <v>-1.98</v>
       </c>
       <c r="L31">
-        <v>0.16</v>
+        <v>-0.34</v>
       </c>
       <c r="M31">
-        <v>3.89</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>301439</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>16.91</v>
+        <v>16.78</v>
       </c>
       <c r="E32">
-        <v>17.07</v>
+        <v>17.02</v>
       </c>
       <c r="F32">
-        <v>17.19</v>
+        <v>17.11</v>
       </c>
       <c r="G32">
-        <v>16.86</v>
+        <v>16.78</v>
       </c>
       <c r="H32">
-        <v>32309</v>
+        <v>35933</v>
       </c>
       <c r="I32">
-        <v>55607737</v>
+        <v>61609421</v>
       </c>
       <c r="J32">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="K32">
-        <v>0.29</v>
+        <v>0.95</v>
       </c>
       <c r="L32">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="M32">
-        <v>3.5</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>301439</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>16.98</v>
+        <v>16.91</v>
       </c>
       <c r="E33">
-        <v>16.74</v>
+        <v>17.07</v>
       </c>
       <c r="F33">
-        <v>17.1</v>
+        <v>17.19</v>
       </c>
       <c r="G33">
-        <v>16.73</v>
+        <v>16.86</v>
       </c>
       <c r="H33">
-        <v>31065</v>
+        <v>32309</v>
       </c>
       <c r="I33">
-        <v>52829155</v>
+        <v>55607737</v>
       </c>
       <c r="J33">
-        <v>2.17</v>
+        <v>1.94</v>
       </c>
       <c r="K33">
-        <v>-1.93</v>
+        <v>0.29</v>
       </c>
       <c r="L33">
-        <v>-0.33</v>
+        <v>0.05</v>
       </c>
       <c r="M33">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>301439</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>16.77</v>
+        <v>16.98</v>
       </c>
       <c r="E34">
-        <v>16.86</v>
+        <v>16.74</v>
       </c>
       <c r="F34">
-        <v>17.03</v>
+        <v>17.1</v>
       </c>
       <c r="G34">
-        <v>16.75</v>
+        <v>16.73</v>
       </c>
       <c r="H34">
-        <v>27464</v>
+        <v>31065</v>
       </c>
       <c r="I34">
-        <v>46763021</v>
+        <v>52829155</v>
       </c>
       <c r="J34">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="K34">
-        <v>0.72</v>
+        <v>-1.93</v>
       </c>
       <c r="L34">
-        <v>0.12</v>
+        <v>-0.33</v>
       </c>
       <c r="M34">
-        <v>2.98</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>301439</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>16.92</v>
+        <v>16.77</v>
       </c>
       <c r="E35">
-        <v>16.54</v>
+        <v>16.86</v>
       </c>
       <c r="F35">
-        <v>16.96</v>
+        <v>17.03</v>
       </c>
       <c r="G35">
-        <v>16.53</v>
+        <v>16.75</v>
       </c>
       <c r="H35">
-        <v>38186</v>
+        <v>27464</v>
       </c>
       <c r="I35">
-        <v>64243606</v>
+        <v>46763021</v>
       </c>
       <c r="J35">
-        <v>2.55</v>
+        <v>1.67</v>
       </c>
       <c r="K35">
-        <v>-1.9</v>
+        <v>0.72</v>
       </c>
       <c r="L35">
-        <v>-0.32</v>
+        <v>0.12</v>
       </c>
       <c r="M35">
-        <v>4.14</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>301439</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>16.64</v>
+        <v>16.92</v>
       </c>
       <c r="E36">
-        <v>17.17</v>
+        <v>16.54</v>
       </c>
       <c r="F36">
-        <v>17.38</v>
+        <v>16.96</v>
       </c>
       <c r="G36">
-        <v>16.64</v>
+        <v>16.53</v>
       </c>
       <c r="H36">
-        <v>61520</v>
+        <v>38186</v>
       </c>
       <c r="I36">
-        <v>106331539</v>
+        <v>64243606</v>
       </c>
       <c r="J36">
-        <v>4.47</v>
+        <v>2.55</v>
       </c>
       <c r="K36">
-        <v>3.81</v>
+        <v>-1.9</v>
       </c>
       <c r="L36">
-        <v>0.63</v>
+        <v>-0.32</v>
       </c>
       <c r="M36">
-        <v>6.67</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>301439</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>17.33</v>
+        <v>16.64</v>
       </c>
       <c r="E37">
-        <v>17.1</v>
+        <v>17.17</v>
       </c>
       <c r="F37">
-        <v>17.39</v>
+        <v>17.38</v>
       </c>
       <c r="G37">
-        <v>17.04</v>
+        <v>16.64</v>
       </c>
       <c r="H37">
-        <v>40764</v>
+        <v>61520</v>
       </c>
       <c r="I37">
-        <v>70625978</v>
+        <v>106331539</v>
       </c>
       <c r="J37">
-        <v>2.04</v>
+        <v>4.47</v>
       </c>
       <c r="K37">
-        <v>-0.41</v>
+        <v>3.81</v>
       </c>
       <c r="L37">
-        <v>-0.07000000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="M37">
-        <v>4.42</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>301439</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>17.05</v>
+        <v>17.33</v>
       </c>
       <c r="E38">
-        <v>17.7</v>
+        <v>17.1</v>
       </c>
       <c r="F38">
-        <v>18.01</v>
+        <v>17.39</v>
       </c>
       <c r="G38">
-        <v>17.03</v>
+        <v>17.04</v>
       </c>
       <c r="H38">
-        <v>94742</v>
+        <v>40764</v>
       </c>
       <c r="I38">
-        <v>167901392</v>
+        <v>70625978</v>
       </c>
       <c r="J38">
-        <v>5.73</v>
+        <v>2.04</v>
       </c>
       <c r="K38">
-        <v>3.51</v>
+        <v>-0.41</v>
       </c>
       <c r="L38">
-        <v>0.6</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M38">
-        <v>10.27</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>301439</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>17.97</v>
+        <v>17.05</v>
       </c>
       <c r="E39">
-        <v>19.27</v>
+        <v>17.7</v>
       </c>
       <c r="F39">
-        <v>19.27</v>
+        <v>18.01</v>
       </c>
       <c r="G39">
-        <v>17.96</v>
+        <v>17.03</v>
       </c>
       <c r="H39">
-        <v>240960</v>
+        <v>94742</v>
       </c>
       <c r="I39">
-        <v>457813852</v>
+        <v>167901392</v>
       </c>
       <c r="J39">
-        <v>7.4</v>
+        <v>5.73</v>
       </c>
       <c r="K39">
-        <v>8.869999999999999</v>
+        <v>3.51</v>
       </c>
       <c r="L39">
-        <v>1.57</v>
+        <v>0.6</v>
       </c>
       <c r="M39">
-        <v>26.12</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>301439</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>18.9</v>
+        <v>17.97</v>
       </c>
       <c r="E40">
-        <v>18.6</v>
+        <v>19.27</v>
       </c>
       <c r="F40">
-        <v>19.29</v>
+        <v>19.27</v>
       </c>
       <c r="G40">
-        <v>18.46</v>
+        <v>17.96</v>
       </c>
       <c r="H40">
-        <v>175213</v>
+        <v>240960</v>
       </c>
       <c r="I40">
-        <v>332305233</v>
+        <v>457813852</v>
       </c>
       <c r="J40">
-        <v>4.31</v>
+        <v>7.4</v>
       </c>
       <c r="K40">
-        <v>-3.48</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="L40">
-        <v>-0.67</v>
+        <v>1.57</v>
       </c>
       <c r="M40">
-        <v>18.99</v>
+        <v>26.12</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>301439</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
+        <v>18.9</v>
+      </c>
+      <c r="E41">
+        <v>18.6</v>
+      </c>
+      <c r="F41">
+        <v>19.29</v>
+      </c>
+      <c r="G41">
         <v>18.46</v>
       </c>
-      <c r="E41">
-        <v>20.71</v>
-      </c>
-      <c r="F41">
-        <v>21.43</v>
-      </c>
-      <c r="G41">
-        <v>18.43</v>
-      </c>
       <c r="H41">
-        <v>327803</v>
+        <v>175213</v>
       </c>
       <c r="I41">
-        <v>663817767</v>
+        <v>332305233</v>
       </c>
       <c r="J41">
-        <v>16.13</v>
+        <v>4.31</v>
       </c>
       <c r="K41">
-        <v>11.34</v>
+        <v>-3.48</v>
       </c>
       <c r="L41">
-        <v>2.11</v>
+        <v>-0.67</v>
       </c>
       <c r="M41">
-        <v>35.53</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>301439</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>20.11</v>
+        <v>18.46</v>
       </c>
       <c r="E42">
-        <v>20.41</v>
+        <v>20.71</v>
       </c>
       <c r="F42">
-        <v>20.53</v>
+        <v>21.43</v>
       </c>
       <c r="G42">
-        <v>19.36</v>
+        <v>18.43</v>
       </c>
       <c r="H42">
-        <v>227633</v>
+        <v>327803</v>
       </c>
       <c r="I42">
-        <v>455467199</v>
+        <v>663817767</v>
       </c>
       <c r="J42">
-        <v>5.65</v>
+        <v>16.13</v>
       </c>
       <c r="K42">
-        <v>-1.45</v>
+        <v>11.34</v>
       </c>
       <c r="L42">
-        <v>-0.3</v>
+        <v>2.11</v>
       </c>
       <c r="M42">
-        <v>24.67</v>
+        <v>35.53</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>301439</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>19.9</v>
+        <v>20.11</v>
       </c>
       <c r="E43">
-        <v>19.64</v>
+        <v>20.41</v>
       </c>
       <c r="F43">
-        <v>21.06</v>
+        <v>20.53</v>
       </c>
       <c r="G43">
-        <v>19.62</v>
+        <v>19.36</v>
       </c>
       <c r="H43">
-        <v>190667</v>
+        <v>227633</v>
       </c>
       <c r="I43">
-        <v>386807647</v>
+        <v>455467199</v>
       </c>
       <c r="J43">
-        <v>7.06</v>
+        <v>5.65</v>
       </c>
       <c r="K43">
-        <v>-3.77</v>
+        <v>-1.45</v>
       </c>
       <c r="L43">
-        <v>-0.77</v>
+        <v>-0.3</v>
       </c>
       <c r="M43">
-        <v>20.66</v>
+        <v>24.67</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>301439</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>19.39</v>
+        <v>19.9</v>
       </c>
       <c r="E44">
-        <v>19.85</v>
+        <v>19.64</v>
       </c>
       <c r="F44">
-        <v>20.62</v>
+        <v>21.06</v>
       </c>
       <c r="G44">
-        <v>19.17</v>
+        <v>19.62</v>
       </c>
       <c r="H44">
-        <v>195695</v>
+        <v>190667</v>
       </c>
       <c r="I44">
-        <v>394279147</v>
+        <v>386807647</v>
       </c>
       <c r="J44">
-        <v>7.38</v>
+        <v>7.06</v>
       </c>
       <c r="K44">
-        <v>1.07</v>
+        <v>-3.77</v>
       </c>
       <c r="L44">
-        <v>0.21</v>
+        <v>-0.77</v>
       </c>
       <c r="M44">
-        <v>21.21</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>301439</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>19.82</v>
+        <v>19.39</v>
       </c>
       <c r="E45">
-        <v>18.88</v>
+        <v>19.85</v>
       </c>
       <c r="F45">
-        <v>19.82</v>
+        <v>20.62</v>
       </c>
       <c r="G45">
-        <v>18.86</v>
+        <v>19.17</v>
       </c>
       <c r="H45">
-        <v>166663</v>
+        <v>195695</v>
       </c>
       <c r="I45">
-        <v>322587035</v>
+        <v>394279147</v>
       </c>
       <c r="J45">
-        <v>4.84</v>
+        <v>7.38</v>
       </c>
       <c r="K45">
-        <v>-4.89</v>
+        <v>1.07</v>
       </c>
       <c r="L45">
-        <v>-0.97</v>
+        <v>0.21</v>
       </c>
       <c r="M45">
-        <v>18.06</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>301439</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>18.82</v>
+        <v>19.82</v>
       </c>
       <c r="E46">
-        <v>18.98</v>
+        <v>18.88</v>
       </c>
       <c r="F46">
-        <v>19.47</v>
+        <v>19.82</v>
       </c>
       <c r="G46">
-        <v>18.63</v>
+        <v>18.86</v>
       </c>
       <c r="H46">
-        <v>123984</v>
+        <v>166663</v>
       </c>
       <c r="I46">
-        <v>238928700</v>
+        <v>322587035</v>
       </c>
       <c r="J46">
-        <v>4.45</v>
+        <v>4.84</v>
       </c>
       <c r="K46">
-        <v>0.53</v>
+        <v>-4.89</v>
       </c>
       <c r="L46">
-        <v>0.1</v>
+        <v>-0.97</v>
       </c>
       <c r="M46">
-        <v>13.44</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>301439</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>18.75</v>
+        <v>18.82</v>
       </c>
       <c r="E47">
-        <v>19.38</v>
+        <v>18.98</v>
       </c>
       <c r="F47">
-        <v>19.62</v>
+        <v>19.47</v>
       </c>
       <c r="G47">
-        <v>18.74</v>
+        <v>18.63</v>
       </c>
       <c r="H47">
-        <v>151740</v>
+        <v>123984</v>
       </c>
       <c r="I47">
-        <v>294755680</v>
+        <v>238928700</v>
       </c>
       <c r="J47">
-        <v>4.64</v>
+        <v>4.45</v>
       </c>
       <c r="K47">
-        <v>2.11</v>
+        <v>0.53</v>
       </c>
       <c r="L47">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="M47">
-        <v>16.45</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>301439</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48">
-        <v>19.35</v>
+        <v>18.75</v>
       </c>
       <c r="E48">
-        <v>18.65</v>
+        <v>19.38</v>
       </c>
       <c r="F48">
-        <v>19.46</v>
+        <v>19.62</v>
       </c>
       <c r="G48">
-        <v>18.13</v>
+        <v>18.74</v>
       </c>
       <c r="H48">
-        <v>147650</v>
+        <v>151740</v>
       </c>
       <c r="I48">
-        <v>277297045</v>
+        <v>294755680</v>
       </c>
       <c r="J48">
-        <v>6.86</v>
+        <v>4.64</v>
       </c>
       <c r="K48">
-        <v>-3.77</v>
+        <v>2.11</v>
       </c>
       <c r="L48">
-        <v>-0.73</v>
+        <v>0.4</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>301439</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D49">
+        <v>19.35</v>
+      </c>
+      <c r="E49">
         <v>18.65</v>
       </c>
-      <c r="E49">
-        <v>18.45</v>
-      </c>
       <c r="F49">
-        <v>18.7</v>
+        <v>19.46</v>
       </c>
       <c r="G49">
-        <v>18.17</v>
+        <v>18.13</v>
       </c>
       <c r="H49">
-        <v>86226</v>
+        <v>147650</v>
       </c>
       <c r="I49">
-        <v>159860467</v>
+        <v>277297045</v>
       </c>
       <c r="J49">
-        <v>2.84</v>
+        <v>6.86</v>
       </c>
       <c r="K49">
-        <v>-1.07</v>
+        <v>-3.77</v>
       </c>
       <c r="L49">
-        <v>-0.2</v>
+        <v>-0.73</v>
       </c>
       <c r="M49">
-        <v>9.35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>301439</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>18.57</v>
+        <v>18.65</v>
       </c>
       <c r="E50">
-        <v>19.96</v>
+        <v>18.45</v>
       </c>
       <c r="F50">
-        <v>20.51</v>
+        <v>18.7</v>
       </c>
       <c r="G50">
-        <v>18.53</v>
+        <v>18.17</v>
       </c>
       <c r="H50">
-        <v>243251</v>
+        <v>86226</v>
       </c>
       <c r="I50">
-        <v>477498324</v>
+        <v>159860467</v>
       </c>
       <c r="J50">
-        <v>10.73</v>
+        <v>2.84</v>
       </c>
       <c r="K50">
-        <v>8.18</v>
+        <v>-1.07</v>
       </c>
       <c r="L50">
-        <v>1.51</v>
+        <v>-0.2</v>
       </c>
       <c r="M50">
-        <v>26.36</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>301439</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>19.5</v>
+        <v>18.57</v>
       </c>
       <c r="E51">
-        <v>19.4</v>
+        <v>19.96</v>
       </c>
       <c r="F51">
-        <v>19.64</v>
+        <v>20.51</v>
       </c>
       <c r="G51">
-        <v>19.13</v>
+        <v>18.53</v>
       </c>
       <c r="H51">
-        <v>150158</v>
+        <v>243251</v>
       </c>
       <c r="I51">
-        <v>292800627</v>
+        <v>477498324</v>
       </c>
       <c r="J51">
-        <v>2.56</v>
+        <v>10.73</v>
       </c>
       <c r="K51">
-        <v>-2.81</v>
+        <v>8.18</v>
       </c>
       <c r="L51">
-        <v>-0.5600000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="M51">
-        <v>16.27</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>301439</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>19.43</v>
+        <v>19.5</v>
       </c>
       <c r="E52">
-        <v>19.48</v>
+        <v>19.4</v>
       </c>
       <c r="F52">
-        <v>19.93</v>
+        <v>19.64</v>
       </c>
       <c r="G52">
-        <v>19.21</v>
+        <v>19.13</v>
       </c>
       <c r="H52">
-        <v>126084</v>
+        <v>150158</v>
       </c>
       <c r="I52">
-        <v>248483651</v>
+        <v>292800627</v>
       </c>
       <c r="J52">
-        <v>3.71</v>
+        <v>2.56</v>
       </c>
       <c r="K52">
-        <v>0.41</v>
+        <v>-2.81</v>
       </c>
       <c r="L52">
-        <v>0.08</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="M52">
-        <v>13.67</v>
+        <v>16.27</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>301439</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D53">
-        <v>19.49</v>
+        <v>19.43</v>
       </c>
       <c r="E53">
-        <v>19.62</v>
+        <v>19.48</v>
       </c>
       <c r="F53">
         <v>19.93</v>
       </c>
       <c r="G53">
-        <v>19.25</v>
+        <v>19.21</v>
       </c>
       <c r="H53">
-        <v>123447</v>
+        <v>126084</v>
       </c>
       <c r="I53">
-        <v>244697428</v>
+        <v>248483651</v>
       </c>
       <c r="J53">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="K53">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
       <c r="L53">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="M53">
-        <v>13.38</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>301439</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54">
-        <v>19.86</v>
+        <v>19.49</v>
       </c>
       <c r="E54">
+        <v>19.62</v>
+      </c>
+      <c r="F54">
+        <v>19.93</v>
+      </c>
+      <c r="G54">
         <v>19.25</v>
       </c>
-      <c r="F54">
-        <v>19.9</v>
-      </c>
-      <c r="G54">
-        <v>19.15</v>
-      </c>
       <c r="H54">
-        <v>119584</v>
+        <v>123447</v>
       </c>
       <c r="I54">
-        <v>233425884</v>
+        <v>244697428</v>
       </c>
       <c r="J54">
-        <v>3.82</v>
+        <v>3.49</v>
       </c>
       <c r="K54">
-        <v>-1.89</v>
+        <v>0.72</v>
       </c>
       <c r="L54">
-        <v>-0.37</v>
+        <v>0.14</v>
       </c>
       <c r="M54">
-        <v>12.96</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>301439</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>19.08</v>
+        <v>19.86</v>
       </c>
       <c r="E55">
-        <v>18.03</v>
+        <v>19.25</v>
       </c>
       <c r="F55">
-        <v>19.08</v>
+        <v>19.9</v>
       </c>
       <c r="G55">
-        <v>18.03</v>
+        <v>19.15</v>
       </c>
       <c r="H55">
-        <v>127503</v>
+        <v>119584</v>
       </c>
       <c r="I55">
-        <v>237690176</v>
+        <v>233425884</v>
       </c>
       <c r="J55">
-        <v>5.45</v>
+        <v>3.82</v>
       </c>
       <c r="K55">
-        <v>-6.34</v>
+        <v>-1.89</v>
       </c>
       <c r="L55">
-        <v>-1.22</v>
+        <v>-0.37</v>
       </c>
       <c r="M55">
-        <v>13.82</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>301439</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D56">
-        <v>17.99</v>
+        <v>19.08</v>
       </c>
       <c r="E56">
-        <v>17.97</v>
+        <v>18.03</v>
       </c>
       <c r="F56">
-        <v>18.06</v>
+        <v>19.08</v>
       </c>
       <c r="G56">
-        <v>17.53</v>
+        <v>18.03</v>
       </c>
       <c r="H56">
-        <v>83356</v>
+        <v>127503</v>
       </c>
       <c r="I56">
-        <v>149477859</v>
+        <v>237690176</v>
       </c>
       <c r="J56">
-        <v>2.94</v>
+        <v>5.45</v>
       </c>
       <c r="K56">
-        <v>-0.33</v>
+        <v>-6.34</v>
       </c>
       <c r="L56">
-        <v>-0.06</v>
+        <v>-1.22</v>
       </c>
       <c r="M56">
-        <v>9.029999999999999</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>301439</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>17.93</v>
+        <v>17.99</v>
       </c>
       <c r="E57">
-        <v>17.55</v>
+        <v>17.97</v>
       </c>
       <c r="F57">
-        <v>18.18</v>
+        <v>18.06</v>
       </c>
       <c r="G57">
         <v>17.53</v>
       </c>
       <c r="H57">
-        <v>73177</v>
+        <v>83356</v>
       </c>
       <c r="I57">
-        <v>130960769</v>
+        <v>149477859</v>
       </c>
       <c r="J57">
-        <v>3.62</v>
+        <v>2.94</v>
       </c>
       <c r="K57">
-        <v>-2.34</v>
+        <v>-0.33</v>
       </c>
       <c r="L57">
-        <v>-0.42</v>
+        <v>-0.06</v>
       </c>
       <c r="M57">
-        <v>7.93</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>301439</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D58">
-        <v>17.64</v>
+        <v>17.93</v>
       </c>
       <c r="E58">
-        <v>17.66</v>
+        <v>17.55</v>
       </c>
       <c r="F58">
-        <v>17.77</v>
+        <v>18.18</v>
       </c>
       <c r="G58">
         <v>17.53</v>
       </c>
       <c r="H58">
-        <v>45986</v>
+        <v>73177</v>
       </c>
       <c r="I58">
-        <v>81824165</v>
+        <v>130960769</v>
       </c>
       <c r="J58">
-        <v>1.37</v>
+        <v>3.62</v>
       </c>
       <c r="K58">
-        <v>0.63</v>
+        <v>-2.34</v>
       </c>
       <c r="L58">
-        <v>0.11</v>
+        <v>-0.42</v>
       </c>
       <c r="M58">
-        <v>4.98</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>301439</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D59">
-        <v>17.73</v>
+        <v>17.64</v>
       </c>
       <c r="E59">
-        <v>17.92</v>
+        <v>17.66</v>
       </c>
       <c r="F59">
-        <v>17.99</v>
+        <v>17.77</v>
       </c>
       <c r="G59">
-        <v>17.35</v>
+        <v>17.53</v>
       </c>
       <c r="H59">
-        <v>60199</v>
+        <v>45986</v>
       </c>
       <c r="I59">
-        <v>107504467</v>
+        <v>81824165</v>
       </c>
       <c r="J59">
-        <v>3.62</v>
+        <v>1.37</v>
       </c>
       <c r="K59">
-        <v>1.47</v>
+        <v>0.63</v>
       </c>
       <c r="L59">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="M59">
-        <v>6.52</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>301439</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D60">
-        <v>17.82</v>
+        <v>17.73</v>
       </c>
       <c r="E60">
-        <v>18.38</v>
+        <v>17.92</v>
       </c>
       <c r="F60">
-        <v>18.65</v>
+        <v>17.99</v>
       </c>
       <c r="G60">
-        <v>17.8</v>
+        <v>17.35</v>
       </c>
       <c r="H60">
-        <v>85874</v>
+        <v>60199</v>
       </c>
       <c r="I60">
-        <v>159228439</v>
+        <v>107504467</v>
       </c>
       <c r="J60">
-        <v>4.74</v>
+        <v>3.62</v>
       </c>
       <c r="K60">
-        <v>2.57</v>
+        <v>1.47</v>
       </c>
       <c r="L60">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="M60">
-        <v>9.31</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>301439</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D61">
-        <v>18.18</v>
+        <v>17.82</v>
       </c>
       <c r="E61">
-        <v>18.04</v>
+        <v>18.38</v>
       </c>
       <c r="F61">
-        <v>18.33</v>
+        <v>18.65</v>
       </c>
       <c r="G61">
-        <v>18.02</v>
+        <v>17.8</v>
       </c>
       <c r="H61">
-        <v>61602</v>
+        <v>85874</v>
       </c>
       <c r="I61">
-        <v>112494991</v>
+        <v>159228439</v>
       </c>
       <c r="J61">
-        <v>1.69</v>
+        <v>4.74</v>
       </c>
       <c r="K61">
-        <v>-1.85</v>
+        <v>2.57</v>
       </c>
       <c r="L61">
-        <v>-0.34</v>
+        <v>0.46</v>
       </c>
       <c r="M61">
-        <v>6.68</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>301439</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D62">
-        <v>17.99</v>
+        <v>18.18</v>
       </c>
       <c r="E62">
-        <v>18.57</v>
+        <v>18.04</v>
       </c>
       <c r="F62">
-        <v>18.69</v>
+        <v>18.33</v>
       </c>
       <c r="G62">
-        <v>17.97</v>
+        <v>18.02</v>
       </c>
       <c r="H62">
-        <v>73601</v>
+        <v>61602</v>
       </c>
       <c r="I62">
-        <v>136152510</v>
+        <v>112494991</v>
       </c>
       <c r="J62">
-        <v>3.99</v>
+        <v>1.69</v>
       </c>
       <c r="K62">
-        <v>2.94</v>
+        <v>-1.85</v>
       </c>
       <c r="L62">
-        <v>0.53</v>
+        <v>-0.34</v>
       </c>
       <c r="M62">
-        <v>7.98</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>301439</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D63">
-        <v>18.67</v>
+        <v>17.99</v>
       </c>
       <c r="E63">
-        <v>18.51</v>
+        <v>18.57</v>
       </c>
       <c r="F63">
-        <v>18.67</v>
+        <v>18.69</v>
       </c>
       <c r="G63">
-        <v>18.35</v>
+        <v>17.97</v>
       </c>
       <c r="H63">
-        <v>59142</v>
+        <v>73601</v>
       </c>
       <c r="I63">
-        <v>109489711</v>
+        <v>136152510</v>
       </c>
       <c r="J63">
-        <v>1.72</v>
+        <v>3.99</v>
       </c>
       <c r="K63">
-        <v>-0.32</v>
+        <v>2.94</v>
       </c>
       <c r="L63">
-        <v>-0.06</v>
+        <v>0.53</v>
       </c>
       <c r="M63">
-        <v>6.41</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>301439</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D64">
-        <v>18.59</v>
+        <v>18.67</v>
       </c>
       <c r="E64">
-        <v>18.3</v>
+        <v>18.51</v>
       </c>
       <c r="F64">
-        <v>18.59</v>
+        <v>18.67</v>
       </c>
       <c r="G64">
-        <v>18.22</v>
+        <v>18.35</v>
       </c>
       <c r="H64">
-        <v>53773</v>
+        <v>59142</v>
       </c>
       <c r="I64">
-        <v>98708423</v>
+        <v>109489711</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="K64">
-        <v>-1.13</v>
+        <v>-0.32</v>
       </c>
       <c r="L64">
-        <v>-0.21</v>
+        <v>-0.06</v>
       </c>
       <c r="M64">
-        <v>5.83</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>301439</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D65">
-        <v>18.79</v>
+        <v>18.59</v>
       </c>
       <c r="E65">
-        <v>18.32</v>
+        <v>18.3</v>
       </c>
       <c r="F65">
-        <v>19.18</v>
+        <v>18.59</v>
       </c>
       <c r="G65">
-        <v>18.32</v>
+        <v>18.22</v>
       </c>
       <c r="H65">
-        <v>88663</v>
+        <v>53773</v>
       </c>
       <c r="I65">
-        <v>165741478</v>
+        <v>98708423</v>
       </c>
       <c r="J65">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="K65">
-        <v>0.11</v>
+        <v>-1.13</v>
       </c>
       <c r="L65">
-        <v>0.02</v>
+        <v>-0.21</v>
       </c>
       <c r="M65">
-        <v>9.609999999999999</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>301439</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D66">
-        <v>17.9</v>
+        <v>18.79</v>
       </c>
       <c r="E66">
-        <v>17.67</v>
+        <v>18.32</v>
       </c>
       <c r="F66">
-        <v>18.31</v>
+        <v>19.18</v>
       </c>
       <c r="G66">
-        <v>17.67</v>
+        <v>18.32</v>
       </c>
       <c r="H66">
-        <v>68177</v>
+        <v>88663</v>
       </c>
       <c r="I66">
-        <v>122180525</v>
+        <v>165741478</v>
       </c>
       <c r="J66">
-        <v>3.49</v>
+        <v>4.7</v>
       </c>
       <c r="K66">
-        <v>-3.55</v>
+        <v>0.11</v>
       </c>
       <c r="L66">
-        <v>-0.65</v>
+        <v>0.02</v>
       </c>
       <c r="M66">
-        <v>7.39</v>
+        <v>9.609999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>301439</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D67">
-        <v>17.62</v>
+        <v>17.9</v>
       </c>
       <c r="E67">
-        <v>17.71</v>
+        <v>17.67</v>
       </c>
       <c r="F67">
-        <v>18</v>
+        <v>18.31</v>
       </c>
       <c r="G67">
-        <v>17.52</v>
+        <v>17.67</v>
       </c>
       <c r="H67">
-        <v>44866</v>
+        <v>68177</v>
       </c>
       <c r="I67">
-        <v>79684479</v>
+        <v>122180525</v>
       </c>
       <c r="J67">
-        <v>2.72</v>
+        <v>3.49</v>
       </c>
       <c r="K67">
-        <v>0.23</v>
+        <v>-3.55</v>
       </c>
       <c r="L67">
-        <v>0.04</v>
+        <v>-0.65</v>
       </c>
       <c r="M67">
-        <v>4.86</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>301439</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D68">
-        <v>17.79</v>
+        <v>17.62</v>
       </c>
       <c r="E68">
-        <v>17.82</v>
+        <v>17.71</v>
       </c>
       <c r="F68">
-        <v>17.97</v>
+        <v>18</v>
       </c>
       <c r="G68">
-        <v>17.61</v>
+        <v>17.52</v>
       </c>
       <c r="H68">
-        <v>38389</v>
+        <v>44866</v>
       </c>
       <c r="I68">
-        <v>68278038</v>
+        <v>79684479</v>
       </c>
       <c r="J68">
-        <v>2.03</v>
+        <v>2.72</v>
       </c>
       <c r="K68">
-        <v>0.62</v>
+        <v>0.23</v>
       </c>
       <c r="L68">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="M68">
-        <v>4.16</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>301439</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D69">
-        <v>17.76</v>
+        <v>17.79</v>
       </c>
       <c r="E69">
-        <v>17.6</v>
+        <v>17.82</v>
       </c>
       <c r="F69">
-        <v>17.8</v>
+        <v>17.97</v>
       </c>
       <c r="G69">
-        <v>17.19</v>
+        <v>17.61</v>
       </c>
       <c r="H69">
-        <v>41814</v>
+        <v>38389</v>
       </c>
       <c r="I69">
-        <v>73218951</v>
+        <v>68278038</v>
       </c>
       <c r="J69">
-        <v>3.42</v>
+        <v>2.03</v>
       </c>
       <c r="K69">
-        <v>-1.23</v>
+        <v>0.62</v>
       </c>
       <c r="L69">
-        <v>-0.22</v>
+        <v>0.11</v>
       </c>
       <c r="M69">
-        <v>4.53</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>301439</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D70">
-        <v>17.5</v>
+        <v>17.76</v>
       </c>
       <c r="E70">
-        <v>17.71</v>
+        <v>17.6</v>
       </c>
       <c r="F70">
-        <v>17.85</v>
+        <v>17.8</v>
       </c>
       <c r="G70">
-        <v>17.45</v>
+        <v>17.19</v>
       </c>
       <c r="H70">
-        <v>36334</v>
+        <v>41814</v>
       </c>
       <c r="I70">
-        <v>64407409</v>
+        <v>73218951</v>
       </c>
       <c r="J70">
-        <v>2.27</v>
+        <v>3.42</v>
       </c>
       <c r="K70">
-        <v>0.63</v>
+        <v>-1.23</v>
       </c>
       <c r="L70">
-        <v>0.11</v>
+        <v>-0.22</v>
       </c>
       <c r="M70">
-        <v>3.94</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>301439</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D71">
-        <v>17.76</v>
+        <v>17.5</v>
       </c>
       <c r="E71">
-        <v>17.84</v>
+        <v>17.71</v>
       </c>
       <c r="F71">
-        <v>17.96</v>
+        <v>17.85</v>
       </c>
       <c r="G71">
-        <v>17.64</v>
+        <v>17.45</v>
       </c>
       <c r="H71">
-        <v>34465</v>
+        <v>36334</v>
       </c>
       <c r="I71">
-        <v>61491246</v>
+        <v>64407409</v>
       </c>
       <c r="J71">
-        <v>1.81</v>
+        <v>2.27</v>
       </c>
       <c r="K71">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
       <c r="L71">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="M71">
-        <v>3.74</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>301439</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D72">
-        <v>17.94</v>
+        <v>17.76</v>
       </c>
       <c r="E72">
-        <v>18.02</v>
+        <v>17.84</v>
       </c>
       <c r="F72">
-        <v>18.07</v>
+        <v>17.96</v>
       </c>
       <c r="G72">
-        <v>17.8</v>
+        <v>17.64</v>
       </c>
       <c r="H72">
-        <v>39661</v>
+        <v>34465</v>
       </c>
       <c r="I72">
-        <v>71310380</v>
+        <v>61491246</v>
       </c>
       <c r="J72">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="K72">
-        <v>1.01</v>
+        <v>0.73</v>
       </c>
       <c r="L72">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="M72">
-        <v>4.3</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>301439</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D73">
-        <v>18.19</v>
+        <v>17.94</v>
       </c>
       <c r="E73">
-        <v>18.03</v>
+        <v>18.02</v>
       </c>
       <c r="F73">
-        <v>18.24</v>
+        <v>18.07</v>
       </c>
       <c r="G73">
-        <v>18.01</v>
+        <v>17.8</v>
       </c>
       <c r="H73">
-        <v>44352</v>
+        <v>39661</v>
       </c>
       <c r="I73">
-        <v>80379178</v>
+        <v>71310380</v>
       </c>
       <c r="J73">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="K73">
-        <v>0.06</v>
+        <v>1.01</v>
       </c>
       <c r="L73">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="M73">
-        <v>4.81</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>301439</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>17.93</v>
+        <v>18.19</v>
       </c>
       <c r="E74">
-        <v>17.82</v>
+        <v>18.03</v>
       </c>
       <c r="F74">
-        <v>18.26</v>
+        <v>18.24</v>
       </c>
       <c r="G74">
-        <v>17.75</v>
+        <v>18.01</v>
       </c>
       <c r="H74">
-        <v>44643</v>
+        <v>44352</v>
       </c>
       <c r="I74">
-        <v>80326969</v>
+        <v>80379178</v>
       </c>
       <c r="J74">
-        <v>2.83</v>
+        <v>1.28</v>
       </c>
       <c r="K74">
-        <v>-1.16</v>
+        <v>0.06</v>
       </c>
       <c r="L74">
-        <v>-0.21</v>
+        <v>0.01</v>
       </c>
       <c r="M74">
-        <v>4.84</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>301439</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D75">
-        <v>17.87</v>
+        <v>17.93</v>
       </c>
       <c r="E75">
-        <v>17.73</v>
+        <v>17.82</v>
       </c>
       <c r="F75">
-        <v>17.9</v>
+        <v>18.26</v>
       </c>
       <c r="G75">
-        <v>17.67</v>
+        <v>17.75</v>
       </c>
       <c r="H75">
-        <v>30560</v>
+        <v>44643</v>
       </c>
       <c r="I75">
-        <v>54174243</v>
+        <v>80326969</v>
       </c>
       <c r="J75">
-        <v>1.29</v>
+        <v>2.83</v>
       </c>
       <c r="K75">
-        <v>-0.51</v>
+        <v>-1.16</v>
       </c>
       <c r="L75">
-        <v>-0.09</v>
+        <v>-0.21</v>
       </c>
       <c r="M75">
-        <v>3.31</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>301439</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D76">
+        <v>17.87</v>
+      </c>
+      <c r="E76">
         <v>17.73</v>
       </c>
-      <c r="E76">
-        <v>17.8</v>
-      </c>
       <c r="F76">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="G76">
-        <v>17.64</v>
+        <v>17.67</v>
       </c>
       <c r="H76">
-        <v>27427</v>
+        <v>30560</v>
       </c>
       <c r="I76">
-        <v>48670928</v>
+        <v>54174243</v>
       </c>
       <c r="J76">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="K76">
-        <v>0.39</v>
+        <v>-0.51</v>
       </c>
       <c r="L76">
-        <v>0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="M76">
-        <v>2.97</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>301439</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D77">
-        <v>17.92</v>
+        <v>17.73</v>
       </c>
       <c r="E77">
-        <v>18.63</v>
+        <v>17.8</v>
       </c>
       <c r="F77">
-        <v>18.8</v>
+        <v>17.87</v>
       </c>
       <c r="G77">
-        <v>17.92</v>
+        <v>17.64</v>
       </c>
       <c r="H77">
-        <v>125602</v>
+        <v>27427</v>
       </c>
       <c r="I77">
-        <v>231262993</v>
+        <v>48670928</v>
       </c>
       <c r="J77">
-        <v>4.94</v>
+        <v>1.3</v>
       </c>
       <c r="K77">
-        <v>4.66</v>
+        <v>0.39</v>
       </c>
       <c r="L77">
-        <v>0.83</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M77">
-        <v>13.61</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>301439</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D78">
-        <v>18.47</v>
+        <v>17.92</v>
       </c>
       <c r="E78">
-        <v>18.89</v>
+        <v>18.63</v>
       </c>
       <c r="F78">
-        <v>19.15</v>
+        <v>18.8</v>
       </c>
       <c r="G78">
-        <v>18.3</v>
+        <v>17.92</v>
       </c>
       <c r="H78">
-        <v>118975</v>
+        <v>125602</v>
       </c>
       <c r="I78">
-        <v>222755084</v>
+        <v>231262993</v>
       </c>
       <c r="J78">
-        <v>4.56</v>
+        <v>4.94</v>
       </c>
       <c r="K78">
-        <v>1.4</v>
+        <v>4.66</v>
       </c>
       <c r="L78">
-        <v>0.26</v>
+        <v>0.83</v>
       </c>
       <c r="M78">
-        <v>12.89</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>301439</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D79">
-        <v>18.86</v>
+        <v>18.47</v>
       </c>
       <c r="E79">
-        <v>18.72</v>
+        <v>18.89</v>
       </c>
       <c r="F79">
-        <v>19.22</v>
+        <v>19.15</v>
       </c>
       <c r="G79">
-        <v>18.72</v>
+        <v>18.3</v>
       </c>
       <c r="H79">
-        <v>125197</v>
+        <v>118975</v>
       </c>
       <c r="I79">
-        <v>237520507</v>
+        <v>222755084</v>
       </c>
       <c r="J79">
-        <v>2.65</v>
+        <v>4.56</v>
       </c>
       <c r="K79">
-        <v>-0.9</v>
+        <v>1.4</v>
       </c>
       <c r="L79">
-        <v>-0.17</v>
+        <v>0.26</v>
       </c>
       <c r="M79">
-        <v>13.57</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>301439</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D80">
-        <v>18.65</v>
+        <v>18.86</v>
       </c>
       <c r="E80">
-        <v>19.46</v>
+        <v>18.72</v>
       </c>
       <c r="F80">
-        <v>19.52</v>
+        <v>19.22</v>
       </c>
       <c r="G80">
-        <v>18.63</v>
+        <v>18.72</v>
       </c>
       <c r="H80">
-        <v>167073</v>
+        <v>125197</v>
       </c>
       <c r="I80">
-        <v>322282182</v>
+        <v>237520507</v>
       </c>
       <c r="J80">
-        <v>4.75</v>
+        <v>2.65</v>
       </c>
       <c r="K80">
-        <v>3.95</v>
+        <v>-0.9</v>
       </c>
       <c r="L80">
-        <v>0.74</v>
+        <v>-0.17</v>
       </c>
       <c r="M80">
-        <v>18.11</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>301439</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D81">
-        <v>19.3</v>
+        <v>18.65</v>
       </c>
       <c r="E81">
-        <v>19.25</v>
+        <v>19.46</v>
       </c>
       <c r="F81">
-        <v>19.41</v>
+        <v>19.52</v>
       </c>
       <c r="G81">
-        <v>19.04</v>
+        <v>18.63</v>
       </c>
       <c r="H81">
-        <v>100571</v>
+        <v>167073</v>
       </c>
       <c r="I81">
-        <v>192791915</v>
+        <v>322282182</v>
       </c>
       <c r="J81">
-        <v>1.9</v>
+        <v>4.75</v>
       </c>
       <c r="K81">
-        <v>-1.08</v>
+        <v>3.95</v>
       </c>
       <c r="L81">
-        <v>-0.21</v>
+        <v>0.74</v>
       </c>
       <c r="M81">
-        <v>10.9</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B82">
+        <v>301439</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D82">
-        <v>19.26</v>
+        <v>19.3</v>
       </c>
       <c r="E82">
-        <v>19</v>
+        <v>19.25</v>
       </c>
       <c r="F82">
-        <v>19.45</v>
+        <v>19.41</v>
       </c>
       <c r="G82">
-        <v>18.82</v>
+        <v>19.04</v>
       </c>
       <c r="H82">
-        <v>85466</v>
+        <v>100571</v>
       </c>
       <c r="I82">
-        <v>163216469</v>
+        <v>192791915</v>
       </c>
       <c r="J82">
-        <v>3.27</v>
+        <v>1.9</v>
       </c>
       <c r="K82">
-        <v>-1.3</v>
+        <v>-1.08</v>
       </c>
       <c r="L82">
-        <v>-0.25</v>
+        <v>-0.21</v>
       </c>
       <c r="M82">
-        <v>9.26</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B83">
+        <v>301439</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D83">
-        <v>18.9</v>
+        <v>19.26</v>
       </c>
       <c r="E83">
-        <v>18.81</v>
+        <v>19</v>
       </c>
       <c r="F83">
-        <v>18.95</v>
+        <v>19.45</v>
       </c>
       <c r="G83">
-        <v>18.62</v>
+        <v>18.82</v>
       </c>
       <c r="H83">
-        <v>67904</v>
+        <v>85466</v>
       </c>
       <c r="I83">
-        <v>127522817</v>
+        <v>163216469</v>
       </c>
       <c r="J83">
-        <v>1.74</v>
+        <v>3.27</v>
       </c>
       <c r="K83">
-        <v>-1</v>
+        <v>-1.3</v>
       </c>
       <c r="L83">
-        <v>-0.19</v>
+        <v>-0.25</v>
       </c>
       <c r="M83">
-        <v>7.36</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B84">
+        <v>301439</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D84">
-        <v>18.84</v>
+        <v>18.9</v>
       </c>
       <c r="E84">
-        <v>18.73</v>
+        <v>18.81</v>
       </c>
       <c r="F84">
         <v>18.95</v>
       </c>
       <c r="G84">
-        <v>18.49</v>
+        <v>18.62</v>
       </c>
       <c r="H84">
-        <v>52442</v>
+        <v>67904</v>
       </c>
       <c r="I84">
-        <v>97714257</v>
+        <v>127522817</v>
       </c>
       <c r="J84">
-        <v>2.45</v>
+        <v>1.74</v>
       </c>
       <c r="K84">
-        <v>-0.43</v>
+        <v>-1</v>
       </c>
       <c r="L84">
-        <v>-0.08</v>
+        <v>-0.19</v>
       </c>
       <c r="M84">
-        <v>5.68</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B85">
+        <v>301439</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D85">
         <v>18.84</v>
       </c>
       <c r="E85">
-        <v>18.37</v>
+        <v>18.73</v>
       </c>
       <c r="F85">
-        <v>18.96</v>
+        <v>18.95</v>
       </c>
       <c r="G85">
-        <v>18.34</v>
+        <v>18.49</v>
       </c>
       <c r="H85">
-        <v>64457</v>
+        <v>52442</v>
       </c>
       <c r="I85">
-        <v>119958537</v>
+        <v>97714257</v>
       </c>
       <c r="J85">
-        <v>3.31</v>
+        <v>2.45</v>
       </c>
       <c r="K85">
-        <v>-1.92</v>
+        <v>-0.43</v>
       </c>
       <c r="L85">
-        <v>-0.36</v>
+        <v>-0.08</v>
       </c>
       <c r="M85">
-        <v>6.99</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B86">
+        <v>301439</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D86">
-        <v>18.28</v>
+        <v>18.84</v>
       </c>
       <c r="E86">
-        <v>17.8</v>
+        <v>18.37</v>
       </c>
       <c r="F86">
-        <v>18.55</v>
+        <v>18.96</v>
       </c>
       <c r="G86">
-        <v>17.8</v>
+        <v>18.34</v>
       </c>
       <c r="H86">
-        <v>62478</v>
+        <v>64457</v>
       </c>
       <c r="I86">
-        <v>113266048</v>
+        <v>119958537</v>
       </c>
       <c r="J86">
-        <v>4.08</v>
+        <v>3.31</v>
       </c>
       <c r="K86">
-        <v>-3.1</v>
+        <v>-1.92</v>
       </c>
       <c r="L86">
-        <v>-0.57</v>
+        <v>-0.36</v>
       </c>
       <c r="M86">
-        <v>6.77</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>301439</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D87">
+        <v>18.28</v>
+      </c>
+      <c r="E87">
         <v>17.8</v>
       </c>
-      <c r="E87">
-        <v>17.86</v>
-      </c>
       <c r="F87">
-        <v>17.95</v>
+        <v>18.55</v>
       </c>
       <c r="G87">
-        <v>17.67</v>
+        <v>17.8</v>
       </c>
       <c r="H87">
-        <v>26037</v>
+        <v>62478</v>
       </c>
       <c r="I87">
-        <v>46508817</v>
+        <v>113266048</v>
       </c>
       <c r="J87">
-        <v>1.57</v>
+        <v>4.08</v>
       </c>
       <c r="K87">
-        <v>0.34</v>
+        <v>-3.1</v>
       </c>
       <c r="L87">
-        <v>0.06</v>
+        <v>-0.57</v>
       </c>
       <c r="M87">
-        <v>2.82</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>301439</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D88">
-        <v>18.07</v>
+        <v>17.8</v>
       </c>
       <c r="E88">
-        <v>18.07</v>
+        <v>17.86</v>
       </c>
       <c r="F88">
-        <v>18.11</v>
+        <v>17.95</v>
       </c>
       <c r="G88">
-        <v>17.92</v>
+        <v>17.67</v>
       </c>
       <c r="H88">
-        <v>29607</v>
+        <v>26037</v>
       </c>
       <c r="I88">
-        <v>53340922</v>
+        <v>46508817</v>
       </c>
       <c r="J88">
-        <v>1.06</v>
+        <v>1.57</v>
       </c>
       <c r="K88">
-        <v>1.18</v>
+        <v>0.34</v>
       </c>
       <c r="L88">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="M88">
-        <v>3.21</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B89">
+        <v>301439</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D89">
-        <v>18.11</v>
+        <v>18.07</v>
       </c>
       <c r="E89">
-        <v>17.88</v>
+        <v>18.07</v>
       </c>
       <c r="F89">
         <v>18.11</v>
       </c>
       <c r="G89">
-        <v>17.82</v>
+        <v>17.92</v>
       </c>
       <c r="H89">
-        <v>28211</v>
+        <v>29607</v>
       </c>
       <c r="I89">
-        <v>50612381</v>
+        <v>53340922</v>
       </c>
       <c r="J89">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="K89">
-        <v>-1.05</v>
+        <v>1.18</v>
       </c>
       <c r="L89">
-        <v>-0.19</v>
+        <v>0.21</v>
       </c>
       <c r="M89">
-        <v>3.06</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>301439</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D90">
-        <v>17.84</v>
+        <v>18.11</v>
       </c>
       <c r="E90">
-        <v>18.03</v>
+        <v>17.88</v>
       </c>
       <c r="F90">
-        <v>18.28</v>
+        <v>18.11</v>
       </c>
       <c r="G90">
-        <v>17.84</v>
+        <v>17.82</v>
       </c>
       <c r="H90">
-        <v>34072</v>
+        <v>28211</v>
       </c>
       <c r="I90">
-        <v>61649382</v>
+        <v>50612381</v>
       </c>
       <c r="J90">
-        <v>2.46</v>
+        <v>1.6</v>
       </c>
       <c r="K90">
-        <v>0.84</v>
+        <v>-1.05</v>
       </c>
       <c r="L90">
-        <v>0.15</v>
+        <v>-0.19</v>
       </c>
       <c r="M90">
-        <v>3.69</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B91">
+        <v>301439</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D91">
-        <v>18.15</v>
+        <v>17.84</v>
       </c>
       <c r="E91">
-        <v>18.1</v>
+        <v>18.03</v>
       </c>
       <c r="F91">
-        <v>18.18</v>
+        <v>18.28</v>
       </c>
       <c r="G91">
-        <v>17.81</v>
+        <v>17.84</v>
       </c>
       <c r="H91">
-        <v>35199</v>
+        <v>34072</v>
       </c>
       <c r="I91">
-        <v>63556273</v>
+        <v>61649382</v>
       </c>
       <c r="J91">
-        <v>2.05</v>
+        <v>2.46</v>
       </c>
       <c r="K91">
-        <v>0.39</v>
+        <v>0.84</v>
       </c>
       <c r="L91">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="M91">
-        <v>3.81</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B92">
+        <v>301439</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D92">
-        <v>18.05</v>
+        <v>18.15</v>
       </c>
       <c r="E92">
         <v>18.1</v>
       </c>
       <c r="F92">
-        <v>18.22</v>
+        <v>18.18</v>
       </c>
       <c r="G92">
-        <v>18.04</v>
+        <v>17.81</v>
       </c>
       <c r="H92">
-        <v>33017</v>
+        <v>35199</v>
       </c>
       <c r="I92">
-        <v>59776673</v>
+        <v>63556273</v>
       </c>
       <c r="J92">
-        <v>0.99</v>
+        <v>2.05</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M92">
-        <v>3.58</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B93">
+        <v>301439</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D93">
+        <v>18.05</v>
+      </c>
+      <c r="E93">
         <v>18.1</v>
       </c>
-      <c r="E93">
-        <v>18.19</v>
-      </c>
       <c r="F93">
-        <v>18.36</v>
+        <v>18.22</v>
       </c>
       <c r="G93">
-        <v>17.78</v>
+        <v>18.04</v>
       </c>
       <c r="H93">
-        <v>52020</v>
+        <v>33017</v>
       </c>
       <c r="I93">
-        <v>93719246</v>
+        <v>59776673</v>
       </c>
       <c r="J93">
-        <v>3.2</v>
+        <v>0.99</v>
       </c>
       <c r="K93">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>5.64</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B94">
+        <v>301439</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D94">
+        <v>18.1</v>
+      </c>
+      <c r="E94">
         <v>18.19</v>
       </c>
-      <c r="E94">
-        <v>18.07</v>
-      </c>
       <c r="F94">
-        <v>18.35</v>
+        <v>18.36</v>
       </c>
       <c r="G94">
-        <v>18.01</v>
+        <v>17.78</v>
       </c>
       <c r="H94">
-        <v>35907</v>
+        <v>52020</v>
       </c>
       <c r="I94">
-        <v>65253177</v>
+        <v>93719246</v>
       </c>
       <c r="J94">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="K94">
-        <v>-0.66</v>
+        <v>0.5</v>
       </c>
       <c r="L94">
-        <v>-0.12</v>
+        <v>0.09</v>
       </c>
       <c r="M94">
-        <v>3.89</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B95">
+        <v>301439</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D95">
-        <v>17.85</v>
+        <v>18.19</v>
       </c>
       <c r="E95">
-        <v>17.91</v>
+        <v>18.07</v>
       </c>
       <c r="F95">
-        <v>17.99</v>
+        <v>18.35</v>
       </c>
       <c r="G95">
-        <v>17.78</v>
+        <v>18.01</v>
       </c>
       <c r="H95">
-        <v>34666</v>
+        <v>35907</v>
       </c>
       <c r="I95">
-        <v>61914656</v>
+        <v>65253177</v>
       </c>
       <c r="J95">
-        <v>1.16</v>
+        <v>1.87</v>
       </c>
       <c r="K95">
-        <v>-0.89</v>
+        <v>-0.66</v>
       </c>
       <c r="L95">
-        <v>-0.16</v>
+        <v>-0.12</v>
       </c>
       <c r="M95">
-        <v>3.76</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B96">
+        <v>301439</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D96">
-        <v>17.95</v>
+        <v>17.85</v>
       </c>
       <c r="E96">
-        <v>17.74</v>
+        <v>17.91</v>
       </c>
       <c r="F96">
-        <v>18</v>
+        <v>17.99</v>
       </c>
       <c r="G96">
-        <v>17.74</v>
+        <v>17.78</v>
       </c>
       <c r="H96">
-        <v>32329</v>
+        <v>34666</v>
       </c>
       <c r="I96">
-        <v>57647931</v>
+        <v>61914656</v>
       </c>
       <c r="J96">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="K96">
-        <v>-0.95</v>
+        <v>-0.89</v>
       </c>
       <c r="L96">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="M96">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>301439</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D97">
-        <v>17.8</v>
+        <v>17.95</v>
       </c>
       <c r="E97">
-        <v>17.54</v>
+        <v>17.74</v>
       </c>
       <c r="F97">
-        <v>17.98</v>
+        <v>18</v>
       </c>
       <c r="G97">
-        <v>17.47</v>
+        <v>17.74</v>
       </c>
       <c r="H97">
-        <v>30520</v>
+        <v>32329</v>
       </c>
       <c r="I97">
-        <v>53802650</v>
+        <v>57647931</v>
       </c>
       <c r="J97">
-        <v>2.87</v>
+        <v>1.45</v>
       </c>
       <c r="K97">
-        <v>-1.13</v>
+        <v>-0.95</v>
       </c>
       <c r="L97">
-        <v>-0.2</v>
+        <v>-0.17</v>
       </c>
       <c r="M97">
-        <v>3.31</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B98">
+        <v>301439</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D98">
-        <v>17.59</v>
+        <v>17.8</v>
       </c>
       <c r="E98">
-        <v>17.69</v>
+        <v>17.54</v>
       </c>
       <c r="F98">
-        <v>17.73</v>
+        <v>17.98</v>
       </c>
       <c r="G98">
-        <v>17.41</v>
+        <v>17.47</v>
       </c>
       <c r="H98">
-        <v>27470</v>
+        <v>30520</v>
       </c>
       <c r="I98">
-        <v>48292084</v>
+        <v>53802650</v>
       </c>
       <c r="J98">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="K98">
-        <v>0.86</v>
+        <v>-1.13</v>
       </c>
       <c r="L98">
-        <v>0.15</v>
+        <v>-0.2</v>
       </c>
       <c r="M98">
-        <v>2.98</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B99">
+        <v>301439</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D99">
-        <v>17.6</v>
+        <v>17.59</v>
       </c>
       <c r="E99">
-        <v>18.08</v>
+        <v>17.69</v>
       </c>
       <c r="F99">
-        <v>18.17</v>
+        <v>17.73</v>
       </c>
       <c r="G99">
-        <v>17.57</v>
+        <v>17.41</v>
       </c>
       <c r="H99">
-        <v>52414</v>
+        <v>27470</v>
       </c>
       <c r="I99">
-        <v>93933636</v>
+        <v>48292084</v>
       </c>
       <c r="J99">
-        <v>3.39</v>
+        <v>1.82</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>0.86</v>
       </c>
       <c r="L99">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="M99">
-        <v>5.68</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B100">
+        <v>301439</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D100">
-        <v>18.14</v>
+        <v>17.6</v>
       </c>
       <c r="E100">
-        <v>18.43</v>
+        <v>18.08</v>
       </c>
       <c r="F100">
-        <v>18.62</v>
+        <v>18.17</v>
       </c>
       <c r="G100">
-        <v>18.03</v>
+        <v>17.57</v>
       </c>
       <c r="H100">
-        <v>92055</v>
+        <v>52414</v>
       </c>
       <c r="I100">
-        <v>169297085</v>
+        <v>93933636</v>
       </c>
       <c r="J100">
-        <v>3.26</v>
+        <v>3.39</v>
       </c>
       <c r="K100">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="M100">
-        <v>9.98</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B101">
+        <v>301439</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D101">
-        <v>18.45</v>
+        <v>18.14</v>
       </c>
       <c r="E101">
-        <v>18.34</v>
+        <v>18.43</v>
       </c>
       <c r="F101">
-        <v>18.58</v>
+        <v>18.62</v>
       </c>
       <c r="G101">
-        <v>18.14</v>
+        <v>18.03</v>
       </c>
       <c r="H101">
-        <v>67477</v>
+        <v>92055</v>
       </c>
       <c r="I101">
-        <v>123670103</v>
+        <v>169297085</v>
       </c>
       <c r="J101">
-        <v>2.39</v>
+        <v>3.26</v>
       </c>
       <c r="K101">
-        <v>-0.49</v>
+        <v>1.94</v>
       </c>
       <c r="L101">
-        <v>-0.09</v>
+        <v>0.35</v>
       </c>
       <c r="M101">
-        <v>7.31</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B102">
+        <v>301439</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D102">
-        <v>18.27</v>
+        <v>18.45</v>
       </c>
       <c r="E102">
-        <v>18.77</v>
+        <v>18.34</v>
       </c>
       <c r="F102">
-        <v>18.84</v>
+        <v>18.58</v>
       </c>
       <c r="G102">
-        <v>18.05</v>
+        <v>18.14</v>
       </c>
       <c r="H102">
-        <v>90272</v>
+        <v>67477</v>
       </c>
       <c r="I102">
-        <v>167892151</v>
+        <v>123670103</v>
       </c>
       <c r="J102">
-        <v>4.31</v>
+        <v>2.39</v>
       </c>
       <c r="K102">
-        <v>2.34</v>
+        <v>-0.49</v>
       </c>
       <c r="L102">
-        <v>0.43</v>
+        <v>-0.09</v>
       </c>
       <c r="M102">
-        <v>9.779999999999999</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B103">
+        <v>301439</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D103">
+        <v>18.27</v>
+      </c>
+      <c r="E103">
+        <v>18.77</v>
+      </c>
+      <c r="F103">
         <v>18.84</v>
       </c>
-      <c r="E103">
-        <v>18.62</v>
-      </c>
-      <c r="F103">
-        <v>18.99</v>
-      </c>
       <c r="G103">
-        <v>18.45</v>
+        <v>18.05</v>
       </c>
       <c r="H103">
-        <v>71289</v>
+        <v>90272</v>
       </c>
       <c r="I103">
-        <v>132952395</v>
+        <v>167892151</v>
       </c>
       <c r="J103">
-        <v>2.88</v>
+        <v>4.31</v>
       </c>
       <c r="K103">
-        <v>-0.8</v>
+        <v>2.34</v>
       </c>
       <c r="L103">
-        <v>-0.15</v>
+        <v>0.43</v>
       </c>
       <c r="M103">
-        <v>7.73</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>301439</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D104">
-        <v>18.48</v>
+        <v>18.84</v>
       </c>
       <c r="E104">
-        <v>18.34</v>
+        <v>18.62</v>
       </c>
       <c r="F104">
-        <v>18.64</v>
+        <v>18.99</v>
       </c>
       <c r="G104">
-        <v>18.13</v>
+        <v>18.45</v>
       </c>
       <c r="H104">
-        <v>59819</v>
+        <v>71289</v>
       </c>
       <c r="I104">
-        <v>109547670</v>
+        <v>132952395</v>
       </c>
       <c r="J104">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="K104">
-        <v>-1.5</v>
+        <v>-0.8</v>
       </c>
       <c r="L104">
-        <v>-0.28</v>
+        <v>-0.15</v>
       </c>
       <c r="M104">
-        <v>6.48</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>301439</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D105">
-        <v>18.87</v>
+        <v>18.48</v>
       </c>
       <c r="E105">
-        <v>18.71</v>
+        <v>18.34</v>
       </c>
       <c r="F105">
-        <v>19.29</v>
+        <v>18.64</v>
       </c>
       <c r="G105">
-        <v>18.43</v>
+        <v>18.13</v>
       </c>
       <c r="H105">
-        <v>115451</v>
+        <v>59819</v>
       </c>
       <c r="I105">
-        <v>216738260</v>
+        <v>109547670</v>
       </c>
       <c r="J105">
-        <v>4.69</v>
+        <v>2.74</v>
       </c>
       <c r="K105">
-        <v>2.02</v>
+        <v>-1.5</v>
       </c>
       <c r="L105">
-        <v>0.37</v>
+        <v>-0.28</v>
       </c>
       <c r="M105">
-        <v>12.51</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B106">
+        <v>301439</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D106">
-        <v>18.35</v>
+        <v>18.87</v>
       </c>
       <c r="E106">
-        <v>19.01</v>
+        <v>18.71</v>
       </c>
       <c r="F106">
-        <v>19.99</v>
+        <v>19.29</v>
       </c>
       <c r="G106">
-        <v>18.31</v>
+        <v>18.43</v>
       </c>
       <c r="H106">
-        <v>226192</v>
+        <v>115451</v>
       </c>
       <c r="I106">
-        <v>436103442</v>
+        <v>216738260</v>
       </c>
       <c r="J106">
-        <v>8.98</v>
+        <v>4.69</v>
       </c>
       <c r="K106">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="L106">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="M106">
-        <v>24.52</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B107">
+        <v>301439</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D107">
-        <v>19.03</v>
+        <v>18.35</v>
       </c>
       <c r="E107">
-        <v>18.7</v>
+        <v>19.01</v>
       </c>
       <c r="F107">
-        <v>19.61</v>
+        <v>19.99</v>
       </c>
       <c r="G107">
-        <v>18.7</v>
+        <v>18.31</v>
       </c>
       <c r="H107">
-        <v>143198</v>
+        <v>226192</v>
       </c>
       <c r="I107">
-        <v>272801351</v>
+        <v>436103442</v>
       </c>
       <c r="J107">
-        <v>4.79</v>
+        <v>8.98</v>
       </c>
       <c r="K107">
-        <v>-1.63</v>
+        <v>1.6</v>
       </c>
       <c r="L107">
-        <v>-0.31</v>
+        <v>0.3</v>
       </c>
       <c r="M107">
-        <v>15.52</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B108">
+        <v>301439</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D108">
-        <v>18.56</v>
+        <v>19.03</v>
       </c>
       <c r="E108">
-        <v>17.34</v>
+        <v>18.7</v>
       </c>
       <c r="F108">
-        <v>18.77</v>
+        <v>19.61</v>
       </c>
       <c r="G108">
-        <v>17.03</v>
+        <v>18.7</v>
       </c>
       <c r="H108">
-        <v>155830</v>
+        <v>143198</v>
       </c>
       <c r="I108">
-        <v>276306576</v>
+        <v>272801351</v>
       </c>
       <c r="J108">
-        <v>9.300000000000001</v>
+        <v>4.79</v>
       </c>
       <c r="K108">
-        <v>-7.27</v>
+        <v>-1.63</v>
       </c>
       <c r="L108">
-        <v>-1.36</v>
+        <v>-0.31</v>
       </c>
       <c r="M108">
-        <v>16.89</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B109">
+        <v>301439</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D109">
-        <v>17.21</v>
+        <v>18.56</v>
       </c>
       <c r="E109">
-        <v>16.44</v>
+        <v>17.34</v>
       </c>
       <c r="F109">
-        <v>17.29</v>
+        <v>18.77</v>
       </c>
       <c r="G109">
-        <v>16.42</v>
+        <v>17.03</v>
       </c>
       <c r="H109">
-        <v>84337</v>
+        <v>155830</v>
       </c>
       <c r="I109">
-        <v>141192984</v>
+        <v>276306576</v>
       </c>
       <c r="J109">
-        <v>5.02</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K109">
-        <v>-5.19</v>
+        <v>-7.27</v>
       </c>
       <c r="L109">
-        <v>-0.9</v>
+        <v>-1.36</v>
       </c>
       <c r="M109">
-        <v>9.140000000000001</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B110">
+        <v>301439</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D110">
+        <v>17.21</v>
+      </c>
+      <c r="E110">
         <v>16.44</v>
       </c>
-      <c r="E110">
-        <v>16.27</v>
-      </c>
       <c r="F110">
-        <v>16.55</v>
+        <v>17.29</v>
       </c>
       <c r="G110">
-        <v>15.91</v>
+        <v>16.42</v>
       </c>
       <c r="H110">
-        <v>54382</v>
+        <v>84337</v>
       </c>
       <c r="I110">
-        <v>88189961</v>
+        <v>141192984</v>
       </c>
       <c r="J110">
-        <v>3.89</v>
+        <v>5.02</v>
       </c>
       <c r="K110">
-        <v>-1.03</v>
+        <v>-5.19</v>
       </c>
       <c r="L110">
-        <v>-0.17</v>
+        <v>-0.9</v>
       </c>
       <c r="M110">
-        <v>5.89</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>301439</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D111">
-        <v>16.06</v>
+        <v>16.44</v>
       </c>
       <c r="E111">
-        <v>16.05</v>
+        <v>16.27</v>
       </c>
       <c r="F111">
-        <v>16.46</v>
+        <v>16.55</v>
       </c>
       <c r="G111">
-        <v>15.97</v>
+        <v>15.91</v>
       </c>
       <c r="H111">
-        <v>41777</v>
+        <v>54382</v>
       </c>
       <c r="I111">
-        <v>67534651</v>
+        <v>88189961</v>
       </c>
       <c r="J111">
-        <v>3.01</v>
+        <v>3.89</v>
       </c>
       <c r="K111">
-        <v>-1.35</v>
+        <v>-1.03</v>
       </c>
       <c r="L111">
-        <v>-0.22</v>
+        <v>-0.17</v>
       </c>
       <c r="M111">
-        <v>4.53</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B112">
+        <v>301439</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D112">
-        <v>16.92</v>
+        <v>16.06</v>
       </c>
       <c r="E112">
-        <v>16.13</v>
+        <v>16.05</v>
       </c>
       <c r="F112">
-        <v>16.98</v>
+        <v>16.46</v>
       </c>
       <c r="G112">
-        <v>16.1</v>
+        <v>15.97</v>
       </c>
       <c r="H112">
-        <v>49098</v>
+        <v>41777</v>
       </c>
       <c r="I112">
-        <v>80952042</v>
+        <v>67534651</v>
       </c>
       <c r="J112">
-        <v>5.48</v>
+        <v>3.01</v>
       </c>
       <c r="K112">
-        <v>0.5</v>
+        <v>-1.35</v>
       </c>
       <c r="L112">
-        <v>0.08</v>
+        <v>-0.22</v>
       </c>
       <c r="M112">
-        <v>5.32</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B113">
+        <v>301439</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D113">
-        <v>16.08</v>
+        <v>16.92</v>
       </c>
       <c r="E113">
-        <v>16.74</v>
+        <v>16.13</v>
       </c>
       <c r="F113">
-        <v>16.84</v>
+        <v>16.98</v>
       </c>
       <c r="G113">
-        <v>16.08</v>
+        <v>16.1</v>
       </c>
       <c r="H113">
-        <v>57364</v>
+        <v>49098</v>
       </c>
       <c r="I113">
-        <v>95212584</v>
+        <v>80952042</v>
       </c>
       <c r="J113">
-        <v>4.71</v>
+        <v>5.48</v>
       </c>
       <c r="K113">
-        <v>3.78</v>
+        <v>0.5</v>
       </c>
       <c r="L113">
-        <v>0.61</v>
+        <v>0.08</v>
       </c>
       <c r="M113">
-        <v>6.22</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B114">
+        <v>301439</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D114">
-        <v>16.62</v>
+        <v>16.08</v>
       </c>
       <c r="E114">
-        <v>16.7</v>
+        <v>16.74</v>
       </c>
       <c r="F114">
-        <v>16.99</v>
+        <v>16.84</v>
       </c>
       <c r="G114">
-        <v>16.6</v>
+        <v>16.08</v>
       </c>
       <c r="H114">
-        <v>48857</v>
+        <v>57364</v>
       </c>
       <c r="I114">
-        <v>81948279</v>
+        <v>95212584</v>
       </c>
       <c r="J114">
-        <v>2.33</v>
+        <v>4.71</v>
       </c>
       <c r="K114">
-        <v>-0.24</v>
+        <v>3.78</v>
       </c>
       <c r="L114">
-        <v>-0.04</v>
+        <v>0.61</v>
       </c>
       <c r="M114">
-        <v>5.3</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B115">
+        <v>301439</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D115">
-        <v>16.65</v>
+        <v>16.62</v>
       </c>
       <c r="E115">
-        <v>16.75</v>
+        <v>16.7</v>
       </c>
       <c r="F115">
-        <v>16.8</v>
+        <v>16.99</v>
       </c>
       <c r="G115">
-        <v>16.51</v>
+        <v>16.6</v>
       </c>
       <c r="H115">
-        <v>35881</v>
+        <v>48857</v>
       </c>
       <c r="I115">
-        <v>59796616</v>
+        <v>81948279</v>
       </c>
       <c r="J115">
-        <v>1.74</v>
+        <v>2.33</v>
       </c>
       <c r="K115">
-        <v>0.3</v>
+        <v>-0.24</v>
       </c>
       <c r="L115">
-        <v>0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="M115">
-        <v>3.89</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B116">
+        <v>301439</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D116">
+        <v>16.65</v>
+      </c>
+      <c r="E116">
         <v>16.75</v>
       </c>
-      <c r="E116">
-        <v>16.72</v>
-      </c>
       <c r="F116">
-        <v>16.84</v>
+        <v>16.8</v>
       </c>
       <c r="G116">
-        <v>16.61</v>
+        <v>16.51</v>
       </c>
       <c r="H116">
-        <v>29024</v>
+        <v>35881</v>
       </c>
       <c r="I116">
-        <v>48511340</v>
+        <v>59796616</v>
       </c>
       <c r="J116">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
       <c r="K116">
-        <v>-0.18</v>
+        <v>0.3</v>
       </c>
       <c r="L116">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M116">
-        <v>3.15</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B117">
+        <v>301439</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D117">
-        <v>16.76</v>
+        <v>16.75</v>
       </c>
       <c r="E117">
-        <v>17.24</v>
+        <v>16.72</v>
       </c>
       <c r="F117">
-        <v>17.69</v>
+        <v>16.84</v>
       </c>
       <c r="G117">
-        <v>16.65</v>
+        <v>16.61</v>
       </c>
       <c r="H117">
-        <v>70937</v>
+        <v>29024</v>
       </c>
       <c r="I117">
-        <v>122014512</v>
+        <v>48511340</v>
       </c>
       <c r="J117">
-        <v>6.22</v>
+        <v>1.37</v>
       </c>
       <c r="K117">
-        <v>3.11</v>
+        <v>-0.18</v>
       </c>
       <c r="L117">
-        <v>0.52</v>
+        <v>-0.03</v>
       </c>
       <c r="M117">
-        <v>7.69</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B118">
+        <v>301439</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D118">
-        <v>17.06</v>
+        <v>16.76</v>
       </c>
       <c r="E118">
-        <v>17.07</v>
+        <v>17.24</v>
       </c>
       <c r="F118">
-        <v>17.23</v>
+        <v>17.69</v>
       </c>
       <c r="G118">
-        <v>16.92</v>
+        <v>16.65</v>
       </c>
       <c r="H118">
-        <v>45836</v>
+        <v>70937</v>
       </c>
       <c r="I118">
-        <v>78166110</v>
+        <v>122014512</v>
       </c>
       <c r="J118">
-        <v>1.8</v>
+        <v>6.22</v>
       </c>
       <c r="K118">
-        <v>-0.99</v>
+        <v>3.11</v>
       </c>
       <c r="L118">
-        <v>-0.17</v>
+        <v>0.52</v>
       </c>
       <c r="M118">
-        <v>4.97</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B119">
+        <v>301439</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D119">
-        <v>17</v>
+        <v>17.06</v>
       </c>
       <c r="E119">
-        <v>16.98</v>
+        <v>17.07</v>
       </c>
       <c r="F119">
-        <v>17.06</v>
+        <v>17.23</v>
       </c>
       <c r="G119">
-        <v>16.85</v>
+        <v>16.92</v>
       </c>
       <c r="H119">
-        <v>32753</v>
+        <v>45836</v>
       </c>
       <c r="I119">
-        <v>55535327</v>
+        <v>78166110</v>
       </c>
       <c r="J119">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="K119">
-        <v>-0.53</v>
+        <v>-0.99</v>
       </c>
       <c r="L119">
-        <v>-0.09</v>
+        <v>-0.17</v>
       </c>
       <c r="M119">
-        <v>3.55</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B120">
+        <v>301439</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D120">
-        <v>16.96</v>
+        <v>17</v>
       </c>
       <c r="E120">
-        <v>16.55</v>
+        <v>16.98</v>
       </c>
       <c r="F120">
-        <v>17.07</v>
+        <v>17.06</v>
       </c>
       <c r="G120">
-        <v>16.51</v>
+        <v>16.85</v>
       </c>
       <c r="H120">
-        <v>40192</v>
+        <v>32753</v>
       </c>
       <c r="I120">
-        <v>67238023</v>
+        <v>55535327</v>
       </c>
       <c r="J120">
-        <v>3.3</v>
+        <v>1.23</v>
       </c>
       <c r="K120">
-        <v>-2.53</v>
+        <v>-0.53</v>
       </c>
       <c r="L120">
-        <v>-0.43</v>
+        <v>-0.09</v>
       </c>
       <c r="M120">
-        <v>4.36</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B121">
+        <v>301439</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D121">
-        <v>16.5</v>
+        <v>16.96</v>
       </c>
       <c r="E121">
-        <v>16.64</v>
+        <v>16.55</v>
       </c>
       <c r="F121">
-        <v>16.72</v>
+        <v>17.07</v>
       </c>
       <c r="G121">
-        <v>16.49</v>
+        <v>16.51</v>
       </c>
       <c r="H121">
-        <v>19990</v>
+        <v>40192</v>
       </c>
       <c r="I121">
-        <v>33188665</v>
+        <v>67238023</v>
       </c>
       <c r="J121">
-        <v>1.39</v>
+        <v>3.3</v>
       </c>
       <c r="K121">
-        <v>0.54</v>
+        <v>-2.53</v>
       </c>
       <c r="L121">
-        <v>0.09</v>
+        <v>-0.43</v>
       </c>
       <c r="M121">
-        <v>2.17</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B122">
+        <v>301439</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D122">
-        <v>16.58</v>
+        <v>16.5</v>
       </c>
       <c r="E122">
-        <v>16.65</v>
+        <v>16.64</v>
       </c>
       <c r="F122">
-        <v>16.77</v>
+        <v>16.72</v>
       </c>
       <c r="G122">
-        <v>16.55</v>
+        <v>16.49</v>
       </c>
       <c r="H122">
-        <v>20024</v>
+        <v>19990</v>
       </c>
       <c r="I122">
-        <v>33368687</v>
+        <v>33188665</v>
       </c>
       <c r="J122">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="K122">
-        <v>0.06</v>
+        <v>0.54</v>
       </c>
       <c r="L122">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="M122">
         <v>2.17</v>
@@ -5888,1354 +5939,1395 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B123">
+        <v>301439</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D123">
+        <v>16.58</v>
+      </c>
+      <c r="E123">
         <v>16.65</v>
       </c>
-      <c r="E123">
+      <c r="F123">
+        <v>16.77</v>
+      </c>
+      <c r="G123">
         <v>16.55</v>
       </c>
-      <c r="F123">
-        <v>16.68</v>
-      </c>
-      <c r="G123">
-        <v>16.54</v>
-      </c>
       <c r="H123">
-        <v>17789</v>
+        <v>20024</v>
       </c>
       <c r="I123">
-        <v>29504501</v>
+        <v>33368687</v>
       </c>
       <c r="J123">
-        <v>0.84</v>
+        <v>1.32</v>
       </c>
       <c r="K123">
-        <v>-0.6</v>
+        <v>0.06</v>
       </c>
       <c r="L123">
-        <v>-0.1</v>
+        <v>0.01</v>
       </c>
       <c r="M123">
-        <v>1.93</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B124">
+        <v>301439</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D124">
-        <v>16.56</v>
+        <v>16.65</v>
       </c>
       <c r="E124">
-        <v>16.28</v>
+        <v>16.55</v>
       </c>
       <c r="F124">
-        <v>16.6</v>
+        <v>16.68</v>
       </c>
       <c r="G124">
-        <v>16.13</v>
+        <v>16.54</v>
       </c>
       <c r="H124">
-        <v>27829</v>
+        <v>17789</v>
       </c>
       <c r="I124">
-        <v>45377384</v>
+        <v>29504501</v>
       </c>
       <c r="J124">
-        <v>2.84</v>
+        <v>0.84</v>
       </c>
       <c r="K124">
-        <v>-1.63</v>
+        <v>-0.6</v>
       </c>
       <c r="L124">
-        <v>-0.27</v>
+        <v>-0.1</v>
       </c>
       <c r="M124">
-        <v>3.02</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B125">
+        <v>301439</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D125">
-        <v>16.33</v>
+        <v>16.56</v>
       </c>
       <c r="E125">
-        <v>16.02</v>
+        <v>16.28</v>
       </c>
       <c r="F125">
-        <v>16.38</v>
+        <v>16.6</v>
       </c>
       <c r="G125">
-        <v>15.98</v>
+        <v>16.13</v>
       </c>
       <c r="H125">
-        <v>24617</v>
+        <v>27829</v>
       </c>
       <c r="I125">
-        <v>39649051</v>
+        <v>45377384</v>
       </c>
       <c r="J125">
-        <v>2.46</v>
+        <v>2.84</v>
       </c>
       <c r="K125">
-        <v>-1.6</v>
+        <v>-1.63</v>
       </c>
       <c r="L125">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="M125">
-        <v>2.67</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B126">
+        <v>301439</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D126">
-        <v>16.11</v>
+        <v>16.33</v>
       </c>
       <c r="E126">
-        <v>16.01</v>
+        <v>16.02</v>
       </c>
       <c r="F126">
-        <v>16.18</v>
+        <v>16.38</v>
       </c>
       <c r="G126">
-        <v>15.96</v>
+        <v>15.98</v>
       </c>
       <c r="H126">
-        <v>19157</v>
+        <v>24617</v>
       </c>
       <c r="I126">
-        <v>30741854</v>
+        <v>39649051</v>
       </c>
       <c r="J126">
-        <v>1.37</v>
+        <v>2.46</v>
       </c>
       <c r="K126">
-        <v>-0.06</v>
+        <v>-1.6</v>
       </c>
       <c r="L126">
-        <v>-0.01</v>
+        <v>-0.26</v>
       </c>
       <c r="M126">
-        <v>2.08</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B127">
+        <v>301439</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D127">
-        <v>15.91</v>
+        <v>16.11</v>
       </c>
       <c r="E127">
-        <v>15.85</v>
+        <v>16.01</v>
       </c>
       <c r="F127">
-        <v>16.06</v>
+        <v>16.18</v>
       </c>
       <c r="G127">
-        <v>15.5</v>
+        <v>15.96</v>
       </c>
       <c r="H127">
-        <v>49500</v>
+        <v>19157</v>
       </c>
       <c r="I127">
-        <v>78170618</v>
+        <v>30741854</v>
       </c>
       <c r="J127">
-        <v>3.5</v>
+        <v>1.37</v>
       </c>
       <c r="K127">
-        <v>-1</v>
+        <v>-0.06</v>
       </c>
       <c r="L127">
-        <v>-0.16</v>
+        <v>-0.01</v>
       </c>
       <c r="M127">
-        <v>5.09</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B128">
+        <v>301439</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D128">
-        <v>15.76</v>
+        <v>15.91</v>
       </c>
       <c r="E128">
-        <v>15.67</v>
+        <v>15.85</v>
       </c>
       <c r="F128">
-        <v>15.88</v>
+        <v>16.06</v>
       </c>
       <c r="G128">
-        <v>15.63</v>
+        <v>15.5</v>
       </c>
       <c r="H128">
-        <v>26667</v>
+        <v>49500</v>
       </c>
       <c r="I128">
-        <v>42007252</v>
+        <v>78170618</v>
       </c>
       <c r="J128">
-        <v>1.58</v>
+        <v>3.5</v>
       </c>
       <c r="K128">
-        <v>-1.14</v>
+        <v>-1</v>
       </c>
       <c r="L128">
-        <v>-0.18</v>
+        <v>-0.16</v>
       </c>
       <c r="M128">
-        <v>2.74</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B129">
+        <v>301439</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D129">
-        <v>15.64</v>
+        <v>15.76</v>
       </c>
       <c r="E129">
-        <v>15.52</v>
+        <v>15.67</v>
       </c>
       <c r="F129">
-        <v>15.75</v>
+        <v>15.88</v>
       </c>
       <c r="G129">
-        <v>15.51</v>
+        <v>15.63</v>
       </c>
       <c r="H129">
-        <v>22766</v>
+        <v>26667</v>
       </c>
       <c r="I129">
-        <v>35555587</v>
+        <v>42007252</v>
       </c>
       <c r="J129">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="K129">
-        <v>-0.96</v>
+        <v>-1.14</v>
       </c>
       <c r="L129">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="M129">
-        <v>2.34</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B130">
+        <v>301439</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D130">
-        <v>15.47</v>
+        <v>15.64</v>
       </c>
       <c r="E130">
-        <v>15.39</v>
+        <v>15.52</v>
       </c>
       <c r="F130">
-        <v>15.56</v>
+        <v>15.75</v>
       </c>
       <c r="G130">
-        <v>15.27</v>
+        <v>15.51</v>
       </c>
       <c r="H130">
-        <v>25831</v>
+        <v>22766</v>
       </c>
       <c r="I130">
-        <v>39802353</v>
+        <v>35555587</v>
       </c>
       <c r="J130">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="K130">
-        <v>-0.84</v>
+        <v>-0.96</v>
       </c>
       <c r="L130">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="M130">
-        <v>2.66</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B131">
+        <v>301439</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D131">
-        <v>15.38</v>
+        <v>15.47</v>
       </c>
       <c r="E131">
-        <v>15.77</v>
+        <v>15.39</v>
       </c>
       <c r="F131">
-        <v>15.79</v>
+        <v>15.56</v>
       </c>
       <c r="G131">
-        <v>15.35</v>
+        <v>15.27</v>
       </c>
       <c r="H131">
-        <v>25128</v>
+        <v>25831</v>
       </c>
       <c r="I131">
-        <v>39218898</v>
+        <v>39802353</v>
       </c>
       <c r="J131">
-        <v>2.86</v>
+        <v>1.87</v>
       </c>
       <c r="K131">
-        <v>2.47</v>
+        <v>-0.84</v>
       </c>
       <c r="L131">
-        <v>0.38</v>
+        <v>-0.13</v>
       </c>
       <c r="M131">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B132">
+        <v>301439</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D132">
-        <v>15.72</v>
+        <v>15.38</v>
       </c>
       <c r="E132">
-        <v>15.58</v>
+        <v>15.77</v>
       </c>
       <c r="F132">
-        <v>15.83</v>
+        <v>15.79</v>
       </c>
       <c r="G132">
-        <v>15.56</v>
+        <v>15.35</v>
       </c>
       <c r="H132">
-        <v>18412</v>
+        <v>25128</v>
       </c>
       <c r="I132">
-        <v>28791631</v>
+        <v>39218898</v>
       </c>
       <c r="J132">
-        <v>1.71</v>
+        <v>2.86</v>
       </c>
       <c r="K132">
-        <v>-1.2</v>
+        <v>2.47</v>
       </c>
       <c r="L132">
-        <v>-0.19</v>
+        <v>0.38</v>
       </c>
       <c r="M132">
-        <v>1.89</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B133">
+        <v>301439</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D133">
-        <v>15.53</v>
+        <v>15.72</v>
       </c>
       <c r="E133">
-        <v>15.45</v>
+        <v>15.58</v>
       </c>
       <c r="F133">
-        <v>15.61</v>
+        <v>15.83</v>
       </c>
       <c r="G133">
-        <v>15.44</v>
+        <v>15.56</v>
       </c>
       <c r="H133">
-        <v>15534</v>
+        <v>18412</v>
       </c>
       <c r="I133">
-        <v>24091329</v>
+        <v>28791631</v>
       </c>
       <c r="J133">
-        <v>1.09</v>
+        <v>1.71</v>
       </c>
       <c r="K133">
-        <v>-0.83</v>
+        <v>-1.2</v>
       </c>
       <c r="L133">
-        <v>-0.13</v>
+        <v>-0.19</v>
       </c>
       <c r="M133">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B134">
+        <v>301439</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D134">
+        <v>15.53</v>
+      </c>
+      <c r="E134">
         <v>15.45</v>
       </c>
-      <c r="E134">
-        <v>15.64</v>
-      </c>
       <c r="F134">
-        <v>15.83</v>
+        <v>15.61</v>
       </c>
       <c r="G134">
-        <v>15.35</v>
+        <v>15.44</v>
       </c>
       <c r="H134">
-        <v>25809</v>
+        <v>15534</v>
       </c>
       <c r="I134">
-        <v>40407414</v>
+        <v>24091329</v>
       </c>
       <c r="J134">
-        <v>3.11</v>
+        <v>1.09</v>
       </c>
       <c r="K134">
-        <v>1.23</v>
+        <v>-0.83</v>
       </c>
       <c r="L134">
-        <v>0.19</v>
+        <v>-0.13</v>
       </c>
       <c r="M134">
-        <v>2.65</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B135">
+        <v>301439</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D135">
-        <v>15.6</v>
+        <v>15.45</v>
       </c>
       <c r="E135">
-        <v>15.73</v>
+        <v>15.64</v>
       </c>
       <c r="F135">
-        <v>15.77</v>
+        <v>15.83</v>
       </c>
       <c r="G135">
-        <v>15.6</v>
+        <v>15.35</v>
       </c>
       <c r="H135">
-        <v>20699</v>
+        <v>25809</v>
       </c>
       <c r="I135">
-        <v>32532159</v>
+        <v>40407414</v>
       </c>
       <c r="J135">
-        <v>1.09</v>
+        <v>3.11</v>
       </c>
       <c r="K135">
-        <v>0.58</v>
+        <v>1.23</v>
       </c>
       <c r="L135">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="M135">
-        <v>2.13</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B136">
+        <v>301439</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D136">
-        <v>16.05</v>
+        <v>15.6</v>
       </c>
       <c r="E136">
-        <v>16.05</v>
+        <v>15.73</v>
       </c>
       <c r="F136">
-        <v>16.18</v>
+        <v>15.77</v>
       </c>
       <c r="G136">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="H136">
-        <v>49975</v>
+        <v>20699</v>
       </c>
       <c r="I136">
-        <v>80348118</v>
+        <v>32532159</v>
       </c>
       <c r="J136">
-        <v>1.78</v>
+        <v>1.09</v>
       </c>
       <c r="K136">
-        <v>2.03</v>
+        <v>0.58</v>
       </c>
       <c r="L136">
-        <v>0.32</v>
+        <v>0.09</v>
       </c>
       <c r="M136">
-        <v>5.14</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B137">
+        <v>301439</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D137">
-        <v>15.94</v>
+        <v>16.05</v>
       </c>
       <c r="E137">
-        <v>15.81</v>
+        <v>16.05</v>
       </c>
       <c r="F137">
-        <v>16.15</v>
+        <v>16.18</v>
       </c>
       <c r="G137">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H137">
-        <v>33998</v>
+        <v>49975</v>
       </c>
       <c r="I137">
-        <v>54130121</v>
+        <v>80348118</v>
       </c>
       <c r="J137">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="K137">
-        <v>-1.5</v>
+        <v>2.03</v>
       </c>
       <c r="L137">
-        <v>-0.24</v>
+        <v>0.32</v>
       </c>
       <c r="M137">
-        <v>3.49</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B138">
+        <v>301439</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D138">
-        <v>15.87</v>
+        <v>15.94</v>
       </c>
       <c r="E138">
-        <v>15.84</v>
+        <v>15.81</v>
       </c>
       <c r="F138">
-        <v>15.96</v>
+        <v>16.15</v>
       </c>
       <c r="G138">
-        <v>15.76</v>
+        <v>15.8</v>
       </c>
       <c r="H138">
-        <v>21099</v>
+        <v>33998</v>
       </c>
       <c r="I138">
-        <v>33471696</v>
+        <v>54130121</v>
       </c>
       <c r="J138">
-        <v>1.27</v>
+        <v>2.18</v>
       </c>
       <c r="K138">
-        <v>0.19</v>
+        <v>-1.5</v>
       </c>
       <c r="L138">
-        <v>0.03</v>
+        <v>-0.24</v>
       </c>
       <c r="M138">
-        <v>2.17</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B139">
+        <v>301439</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D139">
         <v>15.87</v>
       </c>
       <c r="E139">
-        <v>16.07</v>
+        <v>15.84</v>
       </c>
       <c r="F139">
-        <v>16.12</v>
+        <v>15.96</v>
       </c>
       <c r="G139">
-        <v>15.77</v>
+        <v>15.76</v>
       </c>
       <c r="H139">
-        <v>31701</v>
+        <v>21099</v>
       </c>
       <c r="I139">
-        <v>50628339</v>
+        <v>33471696</v>
       </c>
       <c r="J139">
-        <v>2.21</v>
+        <v>1.27</v>
       </c>
       <c r="K139">
-        <v>1.45</v>
+        <v>0.19</v>
       </c>
       <c r="L139">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="M139">
-        <v>3.26</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B140">
+        <v>301439</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D140">
-        <v>15.97</v>
+        <v>15.87</v>
       </c>
       <c r="E140">
-        <v>15.9</v>
+        <v>16.07</v>
       </c>
       <c r="F140">
-        <v>16.03</v>
+        <v>16.12</v>
       </c>
       <c r="G140">
-        <v>15.8</v>
+        <v>15.77</v>
       </c>
       <c r="H140">
-        <v>23838</v>
+        <v>31701</v>
       </c>
       <c r="I140">
-        <v>37900173</v>
+        <v>50628339</v>
       </c>
       <c r="J140">
-        <v>1.43</v>
+        <v>2.21</v>
       </c>
       <c r="K140">
-        <v>-1.06</v>
+        <v>1.45</v>
       </c>
       <c r="L140">
-        <v>-0.17</v>
+        <v>0.23</v>
       </c>
       <c r="M140">
-        <v>2.45</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B141">
+        <v>301439</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D141">
+        <v>15.97</v>
+      </c>
+      <c r="E141">
         <v>15.9</v>
       </c>
-      <c r="E141">
-        <v>15.69</v>
-      </c>
       <c r="F141">
-        <v>15.95</v>
+        <v>16.03</v>
       </c>
       <c r="G141">
-        <v>15.63</v>
+        <v>15.8</v>
       </c>
       <c r="H141">
-        <v>21898</v>
+        <v>23838</v>
       </c>
       <c r="I141">
-        <v>34485149</v>
+        <v>37900173</v>
       </c>
       <c r="J141">
-        <v>2.01</v>
+        <v>1.43</v>
       </c>
       <c r="K141">
-        <v>-1.32</v>
+        <v>-1.06</v>
       </c>
       <c r="L141">
-        <v>-0.21</v>
+        <v>-0.17</v>
       </c>
       <c r="M141">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B142">
+        <v>301439</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D142">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E142">
-        <v>15.54</v>
+        <v>15.69</v>
       </c>
       <c r="F142">
-        <v>15.71</v>
+        <v>15.95</v>
       </c>
       <c r="G142">
-        <v>15.46</v>
+        <v>15.63</v>
       </c>
       <c r="H142">
-        <v>21489</v>
+        <v>21898</v>
       </c>
       <c r="I142">
-        <v>33420316</v>
+        <v>34485149</v>
       </c>
       <c r="J142">
-        <v>1.59</v>
+        <v>2.01</v>
       </c>
       <c r="K142">
-        <v>-0.96</v>
+        <v>-1.32</v>
       </c>
       <c r="L142">
-        <v>-0.15</v>
+        <v>-0.21</v>
       </c>
       <c r="M142">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>13</v>
-      </c>
-      <c r="B143" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B143">
+        <v>301439</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D143">
+        <v>15.7</v>
+      </c>
+      <c r="E143">
         <v>15.54</v>
       </c>
-      <c r="E143">
-        <v>15.07</v>
-      </c>
       <c r="F143">
-        <v>15.55</v>
+        <v>15.71</v>
       </c>
       <c r="G143">
-        <v>15.03</v>
+        <v>15.46</v>
       </c>
       <c r="H143">
-        <v>26517</v>
+        <v>21489</v>
       </c>
       <c r="I143">
-        <v>40315525</v>
+        <v>33420316</v>
       </c>
       <c r="J143">
-        <v>3.35</v>
+        <v>1.59</v>
       </c>
       <c r="K143">
-        <v>-3.02</v>
+        <v>-0.96</v>
       </c>
       <c r="L143">
-        <v>-0.47</v>
+        <v>-0.15</v>
       </c>
       <c r="M143">
-        <v>2.73</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>13</v>
-      </c>
-      <c r="B144" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B144">
+        <v>301439</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D144">
-        <v>15.02</v>
+        <v>15.54</v>
       </c>
       <c r="E144">
-        <v>14.76</v>
+        <v>15.07</v>
       </c>
       <c r="F144">
-        <v>15.26</v>
+        <v>15.55</v>
       </c>
       <c r="G144">
-        <v>14.72</v>
+        <v>15.03</v>
       </c>
       <c r="H144">
-        <v>27527</v>
+        <v>26517</v>
       </c>
       <c r="I144">
-        <v>41128542</v>
+        <v>40315525</v>
       </c>
       <c r="J144">
-        <v>3.58</v>
+        <v>3.35</v>
       </c>
       <c r="K144">
-        <v>-2.06</v>
+        <v>-3.02</v>
       </c>
       <c r="L144">
-        <v>-0.31</v>
+        <v>-0.47</v>
       </c>
       <c r="M144">
-        <v>2.83</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B145">
+        <v>301439</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D145">
-        <v>14.7</v>
+        <v>15.02</v>
       </c>
       <c r="E145">
+        <v>14.76</v>
+      </c>
+      <c r="F145">
+        <v>15.26</v>
+      </c>
+      <c r="G145">
         <v>14.72</v>
       </c>
-      <c r="F145">
-        <v>15.06</v>
-      </c>
-      <c r="G145">
-        <v>14.7</v>
-      </c>
       <c r="H145">
-        <v>19034</v>
+        <v>27527</v>
       </c>
       <c r="I145">
-        <v>28257797</v>
+        <v>41128542</v>
       </c>
       <c r="J145">
-        <v>2.44</v>
+        <v>3.58</v>
       </c>
       <c r="K145">
-        <v>-0.27</v>
+        <v>-2.06</v>
       </c>
       <c r="L145">
-        <v>-0.04</v>
+        <v>-0.31</v>
       </c>
       <c r="M145">
-        <v>1.96</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B146">
+        <v>301439</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D146">
-        <v>14.71</v>
+        <v>14.7</v>
       </c>
       <c r="E146">
-        <v>14.25</v>
+        <v>14.72</v>
       </c>
       <c r="F146">
-        <v>14.79</v>
+        <v>15.06</v>
       </c>
       <c r="G146">
-        <v>14.18</v>
+        <v>14.7</v>
       </c>
       <c r="H146">
-        <v>25077</v>
+        <v>19034</v>
       </c>
       <c r="I146">
-        <v>36072662</v>
+        <v>28257797</v>
       </c>
       <c r="J146">
-        <v>4.14</v>
+        <v>2.44</v>
       </c>
       <c r="K146">
-        <v>-3.19</v>
+        <v>-0.27</v>
       </c>
       <c r="L146">
-        <v>-0.47</v>
+        <v>-0.04</v>
       </c>
       <c r="M146">
-        <v>2.58</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B147">
+        <v>301439</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D147">
-        <v>14.29</v>
+        <v>14.71</v>
       </c>
       <c r="E147">
-        <v>14.63</v>
+        <v>14.25</v>
       </c>
       <c r="F147">
-        <v>14.64</v>
+        <v>14.79</v>
       </c>
       <c r="G147">
-        <v>14.25</v>
+        <v>14.18</v>
       </c>
       <c r="H147">
-        <v>22460</v>
+        <v>25077</v>
       </c>
       <c r="I147">
-        <v>32621945</v>
+        <v>36072662</v>
       </c>
       <c r="J147">
-        <v>2.74</v>
+        <v>4.14</v>
       </c>
       <c r="K147">
-        <v>2.67</v>
+        <v>-3.19</v>
       </c>
       <c r="L147">
-        <v>0.38</v>
+        <v>-0.47</v>
       </c>
       <c r="M147">
-        <v>2.31</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>13</v>
-      </c>
-      <c r="B148" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B148">
+        <v>301439</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D148">
-        <v>14.76</v>
+        <v>14.29</v>
       </c>
       <c r="E148">
-        <v>14.84</v>
+        <v>14.63</v>
       </c>
       <c r="F148">
-        <v>14.93</v>
+        <v>14.64</v>
       </c>
       <c r="G148">
-        <v>14.75</v>
+        <v>14.25</v>
       </c>
       <c r="H148">
-        <v>21310</v>
+        <v>22460</v>
       </c>
       <c r="I148">
-        <v>31632481</v>
+        <v>32621945</v>
       </c>
       <c r="J148">
-        <v>1.23</v>
+        <v>2.74</v>
       </c>
       <c r="K148">
-        <v>1.44</v>
+        <v>2.67</v>
       </c>
       <c r="L148">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="M148">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>13</v>
-      </c>
-      <c r="B149" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B149">
+        <v>301439</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D149">
-        <v>14.71</v>
+        <v>14.76</v>
       </c>
       <c r="E149">
-        <v>14.95</v>
+        <v>14.84</v>
       </c>
       <c r="F149">
-        <v>14.97</v>
+        <v>14.93</v>
       </c>
       <c r="G149">
-        <v>14.62</v>
+        <v>14.75</v>
       </c>
       <c r="H149">
-        <v>22046</v>
+        <v>21310</v>
       </c>
       <c r="I149">
-        <v>32597039</v>
+        <v>31632481</v>
       </c>
       <c r="J149">
-        <v>2.36</v>
+        <v>1.23</v>
       </c>
       <c r="K149">
-        <v>0.74</v>
+        <v>1.44</v>
       </c>
       <c r="L149">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="M149">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>13</v>
-      </c>
-      <c r="B150" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B150">
+        <v>301439</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D150">
+        <v>14.71</v>
+      </c>
+      <c r="E150">
         <v>14.95</v>
       </c>
-      <c r="E150">
-        <v>15.23</v>
-      </c>
       <c r="F150">
-        <v>15.34</v>
+        <v>14.97</v>
       </c>
       <c r="G150">
-        <v>14.86</v>
+        <v>14.62</v>
       </c>
       <c r="H150">
-        <v>26109</v>
+        <v>22046</v>
       </c>
       <c r="I150">
-        <v>39678645</v>
+        <v>32597039</v>
       </c>
       <c r="J150">
-        <v>3.21</v>
+        <v>2.36</v>
       </c>
       <c r="K150">
-        <v>1.87</v>
+        <v>0.74</v>
       </c>
       <c r="L150">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="M150">
-        <v>2.68</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B151">
+        <v>301439</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D151">
-        <v>15.22</v>
+        <v>14.95</v>
       </c>
       <c r="E151">
-        <v>15.38</v>
+        <v>15.23</v>
       </c>
       <c r="F151">
-        <v>15.44</v>
+        <v>15.34</v>
       </c>
       <c r="G151">
-        <v>15.15</v>
+        <v>14.86</v>
       </c>
       <c r="H151">
-        <v>22161</v>
+        <v>26109</v>
       </c>
       <c r="I151">
-        <v>33912996</v>
+        <v>39678645</v>
       </c>
       <c r="J151">
-        <v>1.9</v>
+        <v>3.21</v>
       </c>
       <c r="K151">
-        <v>0.98</v>
+        <v>1.87</v>
       </c>
       <c r="L151">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="M151">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>301439</v>
       </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D152">
+        <v>15.22</v>
+      </c>
+      <c r="E152">
         <v>15.38</v>
       </c>
-      <c r="E152">
-        <v>15.24</v>
-      </c>
       <c r="F152">
-        <v>15.48</v>
+        <v>15.44</v>
       </c>
       <c r="G152">
-        <v>15</v>
+        <v>15.15</v>
       </c>
       <c r="H152">
-        <v>21245</v>
+        <v>22161</v>
       </c>
       <c r="I152">
-        <v>32335027</v>
+        <v>33912996</v>
       </c>
       <c r="J152">
-        <v>3.12</v>
+        <v>1.9</v>
       </c>
       <c r="K152">
-        <v>-0.91</v>
+        <v>0.98</v>
       </c>
       <c r="L152">
-        <v>-0.14</v>
+        <v>0.15</v>
       </c>
       <c r="M152">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>13</v>
-      </c>
-      <c r="B153" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B153">
+        <v>301439</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D153">
-        <v>15.34</v>
+        <v>15.38</v>
       </c>
       <c r="E153">
-        <v>15.23</v>
+        <v>15.24</v>
       </c>
       <c r="F153">
-        <v>15.35</v>
+        <v>15.48</v>
       </c>
       <c r="G153">
-        <v>15.15</v>
+        <v>15</v>
       </c>
       <c r="H153">
-        <v>12872</v>
+        <v>21245</v>
       </c>
       <c r="I153">
-        <v>19631305</v>
+        <v>32335027</v>
       </c>
       <c r="J153">
-        <v>1.31</v>
+        <v>3.12</v>
       </c>
       <c r="K153">
-        <v>-0.07000000000000001</v>
+        <v>-0.91</v>
       </c>
       <c r="L153">
-        <v>-0.01</v>
+        <v>-0.14</v>
       </c>
       <c r="M153">
-        <v>1.32</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>13</v>
-      </c>
-      <c r="B154" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B154">
+        <v>301439</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D154">
-        <v>15.3</v>
+        <v>15.34</v>
       </c>
       <c r="E154">
-        <v>15.07</v>
+        <v>15.23</v>
       </c>
       <c r="F154">
-        <v>15.33</v>
+        <v>15.35</v>
       </c>
       <c r="G154">
-        <v>15.06</v>
+        <v>15.15</v>
       </c>
       <c r="H154">
-        <v>15985</v>
+        <v>12872</v>
       </c>
       <c r="I154">
-        <v>24247906</v>
+        <v>19631305</v>
       </c>
       <c r="J154">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
       <c r="K154">
-        <v>-1.05</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L154">
-        <v>-0.16</v>
+        <v>-0.01</v>
       </c>
       <c r="M154">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>13</v>
-      </c>
-      <c r="B155" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B155">
+        <v>301439</v>
       </c>
       <c r="C155" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D155">
+        <v>15.3</v>
+      </c>
+      <c r="E155">
         <v>15.07</v>
       </c>
-      <c r="E155">
+      <c r="F155">
+        <v>15.33</v>
+      </c>
+      <c r="G155">
+        <v>15.06</v>
+      </c>
+      <c r="H155">
+        <v>15985</v>
+      </c>
+      <c r="I155">
+        <v>24247906</v>
+      </c>
+      <c r="J155">
+        <v>1.77</v>
+      </c>
+      <c r="K155">
+        <v>-1.05</v>
+      </c>
+      <c r="L155">
+        <v>-0.16</v>
+      </c>
+      <c r="M155">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156">
+        <v>301439</v>
+      </c>
+      <c r="C156" t="s">
+        <v>176</v>
+      </c>
+      <c r="D156">
+        <v>15.07</v>
+      </c>
+      <c r="E156">
         <v>15.27</v>
       </c>
-      <c r="F155">
+      <c r="F156">
         <v>15.35</v>
       </c>
-      <c r="G155">
+      <c r="G156">
         <v>15.07</v>
       </c>
-      <c r="H155">
+      <c r="H156">
         <v>20268</v>
       </c>
-      <c r="I155">
+      <c r="I156">
         <v>30983659.7</v>
       </c>
-      <c r="J155">
+      <c r="J156">
         <v>1.86</v>
       </c>
-      <c r="K155">
+      <c r="K156">
         <v>1.33</v>
       </c>
-      <c r="L155">
+      <c r="L156">
         <v>0.2</v>
       </c>
-      <c r="M155">
+      <c r="M156">
         <v>2.08</v>
       </c>
     </row>
